--- a/content/background_data_decision_tree.xlsx
+++ b/content/background_data_decision_tree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://skznet-my.sharepoint.com/personal/j_werner_skz_de/Documents/PlastIQ/Bearbeitung/AP3_Generische Modelle/Entwicklung Entscheidungsschema/02_Hintergrunddaten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="536" documentId="8_{03825F57-9271-4F19-AB31-225796C02C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95A585E3-DE1B-4FA1-A14B-69E033CD9C45}"/>
+  <xr:revisionPtr revIDLastSave="546" documentId="8_{03825F57-9271-4F19-AB31-225796C02C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B06D78FC-7D99-4334-8BC3-21700D70DEC3}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-2955" windowWidth="18240" windowHeight="28440" firstSheet="2" activeTab="5" xr2:uid="{9E0EC3E4-013A-49B8-ADD7-0C11DDD362E4}"/>
   </bookViews>
@@ -514,31 +514,7 @@
     <t xml:space="preserve">PS, </t>
   </si>
   <si>
-    <t>electric_DE_mix</t>
-  </si>
-  <si>
     <t>heat_DE_mix</t>
-  </si>
-  <si>
-    <t>electric_DE_wind</t>
-  </si>
-  <si>
-    <t>electric_DE_medium_voltage</t>
-  </si>
-  <si>
-    <t>electric_AT_medium_voltage</t>
-  </si>
-  <si>
-    <t>electric_CH_medium_voltage</t>
-  </si>
-  <si>
-    <t>electric_DE_green</t>
-  </si>
-  <si>
-    <t>electric_DE_water</t>
-  </si>
-  <si>
-    <t>electric_DE_solar</t>
   </si>
   <si>
     <t>heat_DE_natural_gas</t>
@@ -566,6 +542,30 @@
   </si>
   <si>
     <t>wastewater_DE_defaut</t>
+  </si>
+  <si>
+    <t>electricity_DE_medium_voltage</t>
+  </si>
+  <si>
+    <t>electricity_AT_medium_voltage</t>
+  </si>
+  <si>
+    <t>electricity_CH_medium_voltage</t>
+  </si>
+  <si>
+    <t>electricity_DE_green</t>
+  </si>
+  <si>
+    <t>electricity_DE_water</t>
+  </si>
+  <si>
+    <t>electricity_DE_wind</t>
+  </si>
+  <si>
+    <t>electricity_DE_solar</t>
+  </si>
+  <si>
+    <t>electricity_DE_mix</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1089,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16203,8 +16203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84FB39F2-18C7-4C89-AECD-A2AD62B3166C}">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17338,13 +17338,13 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B64" t="s">
         <v>120</v>
       </c>
       <c r="C64" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D64" s="2">
         <v>4.8232287999999998E-2</v>
@@ -17358,13 +17358,13 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B65" t="s">
         <v>121</v>
       </c>
       <c r="C65" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D65" s="2">
         <v>1.10681008</v>
@@ -17378,13 +17378,13 @@
     </row>
     <row r="66" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="D66" s="8">
         <v>0.3</v>
@@ -17393,172 +17393,172 @@
         <v>133</v>
       </c>
     </row>
-    <row r="67" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D67" s="8">
-        <v>1</v>
-      </c>
-      <c r="E67" s="1" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>159</v>
+      </c>
+      <c r="B67" t="s">
+        <v>122</v>
+      </c>
+      <c r="C67" t="s">
+        <v>166</v>
+      </c>
+      <c r="D67" s="2">
+        <v>0.39970831275007851</v>
+      </c>
+      <c r="E67" t="s">
         <v>133</v>
+      </c>
+      <c r="F67" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>159</v>
+      </c>
+      <c r="B68" t="s">
+        <v>123</v>
+      </c>
+      <c r="C68" t="s">
         <v>167</v>
       </c>
-      <c r="B68" t="s">
-        <v>122</v>
-      </c>
-      <c r="C68" t="s">
-        <v>159</v>
-      </c>
       <c r="D68" s="2">
-        <v>0.39970831275007851</v>
+        <v>0.24423822562094591</v>
       </c>
       <c r="E68" t="s">
         <v>133</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B69" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C69" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D69" s="2">
-        <v>0.24423822562094591</v>
+        <v>0.11525018296731784</v>
       </c>
       <c r="E69" t="s">
         <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B70" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C70" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D70" s="2">
-        <v>0.11525018296731784</v>
+        <v>6.5184568658291961E-2</v>
       </c>
       <c r="E70" t="s">
         <v>133</v>
       </c>
       <c r="F70" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B71" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C71" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="D71" s="2">
-        <v>6.5184568658291961E-2</v>
+        <v>6.0594767899999997E-3</v>
       </c>
       <c r="E71" t="s">
         <v>133</v>
       </c>
       <c r="F71" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B72" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C72" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D72" s="2">
-        <v>6.0594767899999997E-3</v>
+        <v>9.5242999999999994E-3</v>
       </c>
       <c r="E72" t="s">
         <v>133</v>
       </c>
       <c r="F72" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B73" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C73" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="D73" s="2">
-        <v>9.5242999999999994E-3</v>
+        <v>3.5394460000000003E-2</v>
       </c>
       <c r="E73" t="s">
         <v>133</v>
       </c>
       <c r="F73" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>167</v>
-      </c>
-      <c r="B74" t="s">
-        <v>128</v>
-      </c>
-      <c r="C74" t="s">
-        <v>164</v>
-      </c>
-      <c r="D74" s="2">
-        <v>3.5394460000000003E-2</v>
-      </c>
-      <c r="E74" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D74" s="8">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="F74" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B75" t="s">
         <v>129</v>
       </c>
       <c r="C75" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D75" s="2">
         <v>6.5247201979190747E-2</v>
@@ -17603,13 +17603,13 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>151</v>
       </c>
       <c r="C78" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/content/background_data_decision_tree.xlsx
+++ b/content/background_data_decision_tree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://skznet-my.sharepoint.com/personal/j_werner_skz_de/Documents/PlastIQ/Bearbeitung/AP3_Generische Modelle/Entwicklung Entscheidungsschema/02_Hintergrunddaten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="546" documentId="8_{03825F57-9271-4F19-AB31-225796C02C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B06D78FC-7D99-4334-8BC3-21700D70DEC3}"/>
+  <xr:revisionPtr revIDLastSave="659" documentId="8_{03825F57-9271-4F19-AB31-225796C02C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72B128A2-0F49-4640-ADDE-3808BC56B34F}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-2955" windowWidth="18240" windowHeight="28440" firstSheet="2" activeTab="5" xr2:uid="{9E0EC3E4-013A-49B8-ADD7-0C11DDD362E4}"/>
+    <workbookView xWindow="-28920" yWindow="-7665" windowWidth="29040" windowHeight="17640" xr2:uid="{9E0EC3E4-013A-49B8-ADD7-0C11DDD362E4}"/>
   </bookViews>
   <sheets>
     <sheet name="list_material" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="196">
   <si>
     <t>ABS</t>
   </si>
@@ -169,9 +169,6 @@
     <t>chromium</t>
   </si>
   <si>
-    <t>plastic type</t>
-  </si>
-  <si>
     <t>Thermoplaste</t>
   </si>
   <si>
@@ -298,9 +295,6 @@
     <t>kg</t>
   </si>
   <si>
-    <t>production - polymer</t>
-  </si>
-  <si>
     <t>Gabi (2022.2)_DE: Acrylonitrile-Butadiene-Styrene Granulate (ABS) Mix Sphera</t>
   </si>
   <si>
@@ -397,9 +391,6 @@
     <t>Gabi (2023.2)_GLO: Polylactic Acid (PLA) TH 2018 System Total Corbion PLA</t>
   </si>
   <si>
-    <t>production - metal</t>
-  </si>
-  <si>
     <t>PE</t>
   </si>
   <si>
@@ -409,9 +400,6 @@
     <t>Druckluft</t>
   </si>
   <si>
-    <t>Kühlwasser</t>
-  </si>
-  <si>
     <t>Strom Mittelspannung (Mix), DE</t>
   </si>
   <si>
@@ -511,9 +499,6 @@
     <t>lower_heating_value_MJ_per_kg</t>
   </si>
   <si>
-    <t xml:space="preserve">PS, </t>
-  </si>
-  <si>
     <t>heat_DE_mix</t>
   </si>
   <si>
@@ -529,9 +514,6 @@
     <t>water</t>
   </si>
   <si>
-    <t>water_EU_default</t>
-  </si>
-  <si>
     <t>pressured_air</t>
   </si>
   <si>
@@ -541,9 +523,6 @@
     <t>wastewater</t>
   </si>
   <si>
-    <t>wastewater_DE_defaut</t>
-  </si>
-  <si>
     <t>electricity_DE_medium_voltage</t>
   </si>
   <si>
@@ -566,6 +545,93 @@
   </si>
   <si>
     <t>electricity_DE_mix</t>
+  </si>
+  <si>
+    <t>Prozesswasser (Grund)</t>
+  </si>
+  <si>
+    <t>water_EU_groundwater</t>
+  </si>
+  <si>
+    <t>wastewater_DE_default</t>
+  </si>
+  <si>
+    <t>ressource</t>
+  </si>
+  <si>
+    <t>Waschmittel</t>
+  </si>
+  <si>
+    <t>ressource_DE_cleaning_agent</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>production-plastic</t>
+  </si>
+  <si>
+    <t>production-metal</t>
+  </si>
+  <si>
+    <t>production-plastic_DE_ABS</t>
+  </si>
+  <si>
+    <t>production-plastic_DE_PE-HD</t>
+  </si>
+  <si>
+    <t>production-plastic_DE_PE-LD</t>
+  </si>
+  <si>
+    <t>production-plastic_DE_PE-LLD</t>
+  </si>
+  <si>
+    <t>production-plastic_DE_PA</t>
+  </si>
+  <si>
+    <t>production-plastic_DE_PC</t>
+  </si>
+  <si>
+    <t>production-plastic_DE_PEEK</t>
+  </si>
+  <si>
+    <t>production-plastic_DE_PET</t>
+  </si>
+  <si>
+    <t>production-plastic_DE_PMMA</t>
+  </si>
+  <si>
+    <t>production-plastic_DE_POM</t>
+  </si>
+  <si>
+    <t>production-plastic_DE_PP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">production-plastic_DE_PS </t>
+  </si>
+  <si>
+    <t>production-plastic_DE_PVC-U</t>
+  </si>
+  <si>
+    <t>production-plastic_DE_PVC-P</t>
+  </si>
+  <si>
+    <t>production-plastic_DE_Elastomere</t>
+  </si>
+  <si>
+    <t>melting-metal</t>
+  </si>
+  <si>
+    <t>drying_electricity_use_kWh_per_kg</t>
+  </si>
+  <si>
+    <t>drying_heat_use_kWh_per_kg</t>
+  </si>
+  <si>
+    <t>regranulation_electricity_use_kWh_per_kg</t>
+  </si>
+  <si>
+    <t>regranulation_heat_use_kWh_per_kg</t>
   </si>
 </sst>
 </file>
@@ -627,7 +693,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -637,6 +703,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1086,23 +1154,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92B8105-A295-40FF-8933-641BD1D0C7D7}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" customWidth="1"/>
+    <col min="4" max="4" width="18.7265625" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" customWidth="1"/>
+    <col min="6" max="6" width="19.81640625" customWidth="1"/>
+    <col min="7" max="7" width="30.1796875" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="15.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1122,15 +1193,27 @@
         <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -1138,19 +1221,31 @@
       <c r="E2" t="s">
         <v>27</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="7">
         <v>4</v>
       </c>
       <c r="G2">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="7">
+        <v>10</v>
+      </c>
+      <c r="I2" s="7">
+        <v>10</v>
+      </c>
+      <c r="J2" s="7">
+        <v>10</v>
+      </c>
+      <c r="K2" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -1158,19 +1253,31 @@
       <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="7">
         <v>4</v>
       </c>
       <c r="G3">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="7">
+        <v>10</v>
+      </c>
+      <c r="I3" s="7">
+        <v>10</v>
+      </c>
+      <c r="J3" s="7">
+        <v>10</v>
+      </c>
+      <c r="K3" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -1178,19 +1285,31 @@
       <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="7">
         <v>4</v>
       </c>
       <c r="G4">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="7">
+        <v>10</v>
+      </c>
+      <c r="I4" s="7">
+        <v>10</v>
+      </c>
+      <c r="J4" s="7">
+        <v>10</v>
+      </c>
+      <c r="K4" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -1198,19 +1317,31 @@
       <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="7">
         <v>4</v>
       </c>
       <c r="G5">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="7">
+        <v>10</v>
+      </c>
+      <c r="I5" s="7">
+        <v>10</v>
+      </c>
+      <c r="J5" s="7">
+        <v>10</v>
+      </c>
+      <c r="K5" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -1218,19 +1349,31 @@
       <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="7">
         <v>4</v>
       </c>
       <c r="G6">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="7">
+        <v>10</v>
+      </c>
+      <c r="I6" s="7">
+        <v>10</v>
+      </c>
+      <c r="J6" s="7">
+        <v>10</v>
+      </c>
+      <c r="K6" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -1238,19 +1381,31 @@
       <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="7">
         <v>4</v>
       </c>
       <c r="G7">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="7">
+        <v>10</v>
+      </c>
+      <c r="I7" s="7">
+        <v>10</v>
+      </c>
+      <c r="J7" s="7">
+        <v>10</v>
+      </c>
+      <c r="K7" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -1258,16 +1413,29 @@
       <c r="E8" t="s">
         <v>27</v>
       </c>
+      <c r="F8" s="7"/>
       <c r="G8">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="7">
+        <v>10</v>
+      </c>
+      <c r="I8" s="7">
+        <v>10</v>
+      </c>
+      <c r="J8" s="7">
+        <v>10</v>
+      </c>
+      <c r="K8" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>
@@ -1275,19 +1443,31 @@
       <c r="E9" t="s">
         <v>27</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="7">
         <v>4</v>
       </c>
       <c r="G9">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="7">
+        <v>10</v>
+      </c>
+      <c r="I9" s="7">
+        <v>10</v>
+      </c>
+      <c r="J9" s="7">
+        <v>10</v>
+      </c>
+      <c r="K9" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="D10" t="s">
         <v>1</v>
@@ -1295,19 +1475,31 @@
       <c r="E10" t="s">
         <v>27</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="7">
         <v>4</v>
       </c>
       <c r="G10">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="7">
+        <v>10</v>
+      </c>
+      <c r="I10" s="7">
+        <v>10</v>
+      </c>
+      <c r="J10" s="7">
+        <v>10</v>
+      </c>
+      <c r="K10" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="D11" t="s">
         <v>1</v>
@@ -1315,19 +1507,31 @@
       <c r="E11" t="s">
         <v>27</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="7">
         <v>4</v>
       </c>
       <c r="G11">
         <v>38.07</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="7">
+        <v>10</v>
+      </c>
+      <c r="I11" s="7">
+        <v>10</v>
+      </c>
+      <c r="J11" s="7">
+        <v>10</v>
+      </c>
+      <c r="K11" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
@@ -1335,16 +1539,29 @@
       <c r="E12" t="s">
         <v>27</v>
       </c>
+      <c r="F12" s="7"/>
       <c r="G12" s="7">
         <v>38.07</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="7">
+        <v>10</v>
+      </c>
+      <c r="I12" s="7">
+        <v>10</v>
+      </c>
+      <c r="J12" s="7">
+        <v>10</v>
+      </c>
+      <c r="K12" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="D13" t="s">
         <v>1</v>
@@ -1352,16 +1569,29 @@
       <c r="E13" t="s">
         <v>27</v>
       </c>
+      <c r="F13" s="7"/>
       <c r="G13" s="7">
         <v>38.07</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="7">
+        <v>10</v>
+      </c>
+      <c r="I13" s="7">
+        <v>10</v>
+      </c>
+      <c r="J13" s="7">
+        <v>10</v>
+      </c>
+      <c r="K13" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="D14" t="s">
         <v>1</v>
@@ -1369,16 +1599,29 @@
       <c r="E14" t="s">
         <v>27</v>
       </c>
+      <c r="F14" s="7"/>
       <c r="G14">
         <v>27.36</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="7">
+        <v>10</v>
+      </c>
+      <c r="I14" s="7">
+        <v>10</v>
+      </c>
+      <c r="J14" s="7">
+        <v>10</v>
+      </c>
+      <c r="K14" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="D15" t="s">
         <v>1</v>
@@ -1386,19 +1629,31 @@
       <c r="E15" t="s">
         <v>27</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="7">
         <v>4</v>
       </c>
       <c r="G15">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="7">
+        <v>10</v>
+      </c>
+      <c r="I15" s="7">
+        <v>10</v>
+      </c>
+      <c r="J15" s="7">
+        <v>10</v>
+      </c>
+      <c r="K15" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="D16" t="s">
         <v>1</v>
@@ -1406,19 +1661,31 @@
       <c r="E16" t="s">
         <v>27</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="7">
         <v>4</v>
       </c>
       <c r="G16">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="7">
+        <v>10</v>
+      </c>
+      <c r="I16" s="7">
+        <v>10</v>
+      </c>
+      <c r="J16" s="7">
+        <v>10</v>
+      </c>
+      <c r="K16" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="D17" t="s">
         <v>1</v>
@@ -1426,16 +1693,29 @@
       <c r="E17" t="s">
         <v>27</v>
       </c>
+      <c r="F17" s="7"/>
       <c r="G17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="7">
+        <v>10</v>
+      </c>
+      <c r="I17" s="7">
+        <v>10</v>
+      </c>
+      <c r="J17" s="7">
+        <v>10</v>
+      </c>
+      <c r="K17" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="D18" t="s">
         <v>1</v>
@@ -1443,13 +1723,26 @@
       <c r="E18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F18" s="7"/>
+      <c r="H18" s="7">
+        <v>10</v>
+      </c>
+      <c r="I18" s="7">
+        <v>10</v>
+      </c>
+      <c r="J18" s="7">
+        <v>10</v>
+      </c>
+      <c r="K18" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="D19" t="s">
         <v>1</v>
@@ -1457,13 +1750,26 @@
       <c r="E19" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="7"/>
+      <c r="H19" s="7">
+        <v>10</v>
+      </c>
+      <c r="I19" s="7">
+        <v>10</v>
+      </c>
+      <c r="J19" s="7">
+        <v>10</v>
+      </c>
+      <c r="K19" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="D20" t="s">
         <v>1</v>
@@ -1471,16 +1777,29 @@
       <c r="E20" t="s">
         <v>27</v>
       </c>
+      <c r="F20" s="7"/>
       <c r="G20">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="7">
+        <v>10</v>
+      </c>
+      <c r="I20" s="7">
+        <v>10</v>
+      </c>
+      <c r="J20" s="7">
+        <v>10</v>
+      </c>
+      <c r="K20" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="D21" t="s">
         <v>1</v>
@@ -1488,16 +1807,29 @@
       <c r="E21" t="s">
         <v>27</v>
       </c>
+      <c r="F21" s="7"/>
       <c r="G21">
         <v>27.36</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="7">
+        <v>10</v>
+      </c>
+      <c r="I21" s="7">
+        <v>10</v>
+      </c>
+      <c r="J21" s="7">
+        <v>10</v>
+      </c>
+      <c r="K21" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="D22" t="s">
         <v>1</v>
@@ -1505,13 +1837,26 @@
       <c r="E22" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="7"/>
+      <c r="H22" s="7">
+        <v>10</v>
+      </c>
+      <c r="I22" s="7">
+        <v>10</v>
+      </c>
+      <c r="J22" s="7">
+        <v>10</v>
+      </c>
+      <c r="K22" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="D23" t="s">
         <v>28</v>
@@ -1519,16 +1864,29 @@
       <c r="E23" t="s">
         <v>27</v>
       </c>
+      <c r="F23" s="7"/>
       <c r="G23">
         <v>37.799999999999997</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="7">
+        <v>10</v>
+      </c>
+      <c r="I23" s="7">
+        <v>10</v>
+      </c>
+      <c r="J23" s="7">
+        <v>10</v>
+      </c>
+      <c r="K23" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="D24" t="s">
         <v>29</v>
@@ -1536,13 +1894,26 @@
       <c r="E24" t="s">
         <v>27</v>
       </c>
+      <c r="F24" s="7"/>
       <c r="G24">
         <v>23.04</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="7">
+        <v>10</v>
+      </c>
+      <c r="I24" s="7">
+        <v>10</v>
+      </c>
+      <c r="J24" s="7">
+        <v>10</v>
+      </c>
+      <c r="K24" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1559,10 +1930,22 @@
       <c r="G25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
         <v>32</v>
@@ -1576,10 +1959,22 @@
       <c r="G26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
         <v>32</v>
@@ -1593,10 +1988,22 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
         <v>32</v>
@@ -1613,10 +2020,22 @@
       <c r="G28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
         <v>32</v>
@@ -1633,10 +2052,22 @@
       <c r="G29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
@@ -1650,10 +2081,22 @@
       <c r="G30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
         <v>32</v>
@@ -1667,10 +2110,22 @@
       <c r="G31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
         <v>32</v>
@@ -1687,10 +2142,22 @@
       <c r="G32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
         <v>32</v>
@@ -1704,10 +2171,22 @@
       <c r="G33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" t="s">
         <v>32</v>
@@ -1719,6 +2198,18 @@
         <v>27</v>
       </c>
       <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
         <v>0</v>
       </c>
     </row>
@@ -1736,12 +2227,12 @@
       <selection activeCell="B2" sqref="B2:AH34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1"/>
+    <col min="1" max="1" width="10.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1878,7 +2369,7 @@
         <v>Zink</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="str">
         <f>list_material!A2</f>
         <v>PE-LD</v>
@@ -1983,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="str">
         <f>list_material!A3</f>
         <v>PE-LLD</v>
@@ -2088,7 +2579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="str">
         <f>list_material!A4</f>
         <v>PE-HD</v>
@@ -2193,7 +2684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="str">
         <f>list_material!A5</f>
         <v>PE-MD</v>
@@ -2298,7 +2789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="str">
         <f>list_material!A6</f>
         <v>PP</v>
@@ -2403,7 +2894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="str">
         <f>list_material!A7</f>
         <v>PS</v>
@@ -2508,7 +2999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="str">
         <f>list_material!A8</f>
         <v>PS-E/XPS</v>
@@ -2613,7 +3104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="str">
         <f>list_material!A9</f>
         <v>PVC-U</v>
@@ -2718,7 +3209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="str">
         <f>list_material!A10</f>
         <v>PVC-P</v>
@@ -2823,7 +3314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="str">
         <f>list_material!A11</f>
         <v>ABS</v>
@@ -2928,7 +3419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="str">
         <f>list_material!A12</f>
         <v>ASA</v>
@@ -3033,7 +3524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="str">
         <f>list_material!A13</f>
         <v>SAN</v>
@@ -3138,7 +3629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="str">
         <f>list_material!A14</f>
         <v>PMMA</v>
@@ -3243,7 +3734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="str">
         <f>list_material!A15</f>
         <v>PA</v>
@@ -3348,7 +3839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="str">
         <f>list_material!A16</f>
         <v>PET</v>
@@ -3453,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="str">
         <f>list_material!A17</f>
         <v>POM</v>
@@ -3558,7 +4049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="str">
         <f>list_material!A18</f>
         <v>PBT</v>
@@ -3663,7 +4154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="str">
         <f>list_material!A19</f>
         <v>PEEK</v>
@@ -3768,7 +4259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="str">
         <f>list_material!A20</f>
         <v>PC</v>
@@ -3873,7 +4364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="str">
         <f>list_material!A21</f>
         <v>PUR</v>
@@ -3978,7 +4469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="str">
         <f>list_material!A22</f>
         <v>Thermoplaste</v>
@@ -4083,7 +4574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="str">
         <f>list_material!A23</f>
         <v>Elastomere</v>
@@ -4188,7 +4679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="str">
         <f>list_material!A24</f>
         <v>Duromere</v>
@@ -4293,7 +4784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="str">
         <f>list_material!A25</f>
         <v>Aluminium</v>
@@ -4398,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="str">
         <f>list_material!A26</f>
         <v>Blei</v>
@@ -4503,7 +4994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="str">
         <f>list_material!A27</f>
         <v>Chrom</v>
@@ -4608,7 +5099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="str">
         <f>list_material!A28</f>
         <v>Eisen</v>
@@ -4713,7 +5204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="str">
         <f>list_material!A29</f>
         <v>Kupfer</v>
@@ -4818,7 +5309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="str">
         <f>list_material!A30</f>
         <v>Magnesium</v>
@@ -4923,7 +5414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="str">
         <f>list_material!A31</f>
         <v>Nickel</v>
@@ -5028,7 +5519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="str">
         <f>list_material!A32</f>
         <v>Stahl</v>
@@ -5133,7 +5624,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="str">
         <f>list_material!A33</f>
         <v>Titan</v>
@@ -5238,7 +5729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="str">
         <f>list_material!A34</f>
         <v>Zink</v>
@@ -5356,9 +5847,9 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -5495,7 +5986,7 @@
         <v>Zink</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="str">
         <f>list_material!A2</f>
         <v>PE-LD</v>
@@ -5600,7 +6091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="str">
         <f>list_material!A3</f>
         <v>PE-LLD</v>
@@ -5705,7 +6196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="str">
         <f>list_material!A4</f>
         <v>PE-HD</v>
@@ -5810,7 +6301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="str">
         <f>list_material!A5</f>
         <v>PE-MD</v>
@@ -5915,7 +6406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="str">
         <f>list_material!A6</f>
         <v>PP</v>
@@ -6020,7 +6511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="str">
         <f>list_material!A7</f>
         <v>PS</v>
@@ -6125,7 +6616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="str">
         <f>list_material!A8</f>
         <v>PS-E/XPS</v>
@@ -6230,7 +6721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="str">
         <f>list_material!A9</f>
         <v>PVC-U</v>
@@ -6335,7 +6826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="str">
         <f>list_material!A10</f>
         <v>PVC-P</v>
@@ -6440,7 +6931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="str">
         <f>list_material!A11</f>
         <v>ABS</v>
@@ -6545,7 +7036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="str">
         <f>list_material!A12</f>
         <v>ASA</v>
@@ -6650,7 +7141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="str">
         <f>list_material!A13</f>
         <v>SAN</v>
@@ -6755,7 +7246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="str">
         <f>list_material!A14</f>
         <v>PMMA</v>
@@ -6860,7 +7351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="str">
         <f>list_material!A15</f>
         <v>PA</v>
@@ -6965,7 +7456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="str">
         <f>list_material!A16</f>
         <v>PET</v>
@@ -7070,7 +7561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="str">
         <f>list_material!A17</f>
         <v>POM</v>
@@ -7175,7 +7666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="str">
         <f>list_material!A18</f>
         <v>PBT</v>
@@ -7280,7 +7771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="str">
         <f>list_material!A19</f>
         <v>PEEK</v>
@@ -7385,7 +7876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="str">
         <f>list_material!A20</f>
         <v>PC</v>
@@ -7490,7 +7981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="str">
         <f>list_material!A21</f>
         <v>PUR</v>
@@ -7595,7 +8086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="str">
         <f>list_material!A22</f>
         <v>Thermoplaste</v>
@@ -7700,7 +8191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="str">
         <f>list_material!A23</f>
         <v>Elastomere</v>
@@ -7805,7 +8296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="str">
         <f>list_material!A24</f>
         <v>Duromere</v>
@@ -7910,7 +8401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="str">
         <f>list_material!A25</f>
         <v>Aluminium</v>
@@ -8015,7 +8506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="str">
         <f>list_material!A26</f>
         <v>Blei</v>
@@ -8120,7 +8611,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="str">
         <f>list_material!A27</f>
         <v>Chrom</v>
@@ -8225,7 +8716,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="str">
         <f>list_material!A28</f>
         <v>Eisen</v>
@@ -8330,7 +8821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="str">
         <f>list_material!A29</f>
         <v>Kupfer</v>
@@ -8435,7 +8926,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="str">
         <f>list_material!A30</f>
         <v>Magnesium</v>
@@ -8540,7 +9031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="str">
         <f>list_material!A31</f>
         <v>Nickel</v>
@@ -8645,7 +9136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="str">
         <f>list_material!A32</f>
         <v>Stahl</v>
@@ -8750,7 +9241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="str">
         <f>list_material!A33</f>
         <v>Titan</v>
@@ -8855,7 +9346,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="str">
         <f>list_material!A34</f>
         <v>Zink</v>
@@ -8973,9 +9464,9 @@
       <selection activeCell="A2" sqref="A2:A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -9112,7 +9603,7 @@
         <v>Zink</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="str">
         <f>list_material!A2</f>
         <v>PE-LD</v>
@@ -9217,7 +9708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="str">
         <f>list_material!A3</f>
         <v>PE-LLD</v>
@@ -9322,7 +9813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="str">
         <f>list_material!A4</f>
         <v>PE-HD</v>
@@ -9427,7 +9918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="str">
         <f>list_material!A5</f>
         <v>PE-MD</v>
@@ -9532,7 +10023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="str">
         <f>list_material!A6</f>
         <v>PP</v>
@@ -9637,7 +10128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="str">
         <f>list_material!A7</f>
         <v>PS</v>
@@ -9742,7 +10233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="str">
         <f>list_material!A8</f>
         <v>PS-E/XPS</v>
@@ -9847,7 +10338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="str">
         <f>list_material!A9</f>
         <v>PVC-U</v>
@@ -9952,7 +10443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="str">
         <f>list_material!A10</f>
         <v>PVC-P</v>
@@ -10057,7 +10548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="str">
         <f>list_material!A11</f>
         <v>ABS</v>
@@ -10162,7 +10653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="str">
         <f>list_material!A12</f>
         <v>ASA</v>
@@ -10267,7 +10758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="str">
         <f>list_material!A13</f>
         <v>SAN</v>
@@ -10372,7 +10863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="str">
         <f>list_material!A14</f>
         <v>PMMA</v>
@@ -10477,7 +10968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="str">
         <f>list_material!A15</f>
         <v>PA</v>
@@ -10582,7 +11073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="str">
         <f>list_material!A16</f>
         <v>PET</v>
@@ -10687,7 +11178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="str">
         <f>list_material!A17</f>
         <v>POM</v>
@@ -10792,7 +11283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="str">
         <f>list_material!A18</f>
         <v>PBT</v>
@@ -10897,7 +11388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="str">
         <f>list_material!A19</f>
         <v>PEEK</v>
@@ -11002,7 +11493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="str">
         <f>list_material!A20</f>
         <v>PC</v>
@@ -11107,7 +11598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="str">
         <f>list_material!A21</f>
         <v>PUR</v>
@@ -11212,7 +11703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="str">
         <f>list_material!A22</f>
         <v>Thermoplaste</v>
@@ -11317,7 +11808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="str">
         <f>list_material!A23</f>
         <v>Elastomere</v>
@@ -11422,7 +11913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="str">
         <f>list_material!A24</f>
         <v>Duromere</v>
@@ -11527,7 +12018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="str">
         <f>list_material!A25</f>
         <v>Aluminium</v>
@@ -11632,7 +12123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="str">
         <f>list_material!A26</f>
         <v>Blei</v>
@@ -11737,7 +12228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="str">
         <f>list_material!A27</f>
         <v>Chrom</v>
@@ -11842,7 +12333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="str">
         <f>list_material!A28</f>
         <v>Eisen</v>
@@ -11947,7 +12438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="str">
         <f>list_material!A29</f>
         <v>Kupfer</v>
@@ -12052,7 +12543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="str">
         <f>list_material!A30</f>
         <v>Magnesium</v>
@@ -12157,7 +12648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="str">
         <f>list_material!A31</f>
         <v>Nickel</v>
@@ -12262,7 +12753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="str">
         <f>list_material!A32</f>
         <v>Stahl</v>
@@ -12367,7 +12858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="str">
         <f>list_material!A33</f>
         <v>Titan</v>
@@ -12472,7 +12963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="str">
         <f>list_material!A34</f>
         <v>Zink</v>
@@ -12590,9 +13081,9 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -12729,7 +13220,7 @@
         <v>Zink</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="str">
         <f>list_material!A2</f>
         <v>PE-LD</v>
@@ -12834,7 +13325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="str">
         <f>list_material!A3</f>
         <v>PE-LLD</v>
@@ -12939,7 +13430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="str">
         <f>list_material!A4</f>
         <v>PE-HD</v>
@@ -13044,7 +13535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="str">
         <f>list_material!A5</f>
         <v>PE-MD</v>
@@ -13149,7 +13640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="str">
         <f>list_material!A6</f>
         <v>PP</v>
@@ -13254,7 +13745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="str">
         <f>list_material!A7</f>
         <v>PS</v>
@@ -13359,7 +13850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="str">
         <f>list_material!A8</f>
         <v>PS-E/XPS</v>
@@ -13464,7 +13955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="str">
         <f>list_material!A9</f>
         <v>PVC-U</v>
@@ -13569,7 +14060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="str">
         <f>list_material!A10</f>
         <v>PVC-P</v>
@@ -13674,7 +14165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="str">
         <f>list_material!A11</f>
         <v>ABS</v>
@@ -13779,7 +14270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="str">
         <f>list_material!A12</f>
         <v>ASA</v>
@@ -13884,7 +14375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="str">
         <f>list_material!A13</f>
         <v>SAN</v>
@@ -13989,7 +14480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="str">
         <f>list_material!A14</f>
         <v>PMMA</v>
@@ -14094,7 +14585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="str">
         <f>list_material!A15</f>
         <v>PA</v>
@@ -14199,7 +14690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="str">
         <f>list_material!A16</f>
         <v>PET</v>
@@ -14304,7 +14795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="str">
         <f>list_material!A17</f>
         <v>POM</v>
@@ -14409,7 +14900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="str">
         <f>list_material!A18</f>
         <v>PBT</v>
@@ -14514,7 +15005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="str">
         <f>list_material!A19</f>
         <v>PEEK</v>
@@ -14619,7 +15110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="str">
         <f>list_material!A20</f>
         <v>PC</v>
@@ -14724,7 +15215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="str">
         <f>list_material!A21</f>
         <v>PUR</v>
@@ -14829,7 +15320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="str">
         <f>list_material!A22</f>
         <v>Thermoplaste</v>
@@ -14934,7 +15425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="str">
         <f>list_material!A23</f>
         <v>Elastomere</v>
@@ -15039,7 +15530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="str">
         <f>list_material!A24</f>
         <v>Duromere</v>
@@ -15144,7 +15635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="str">
         <f>list_material!A25</f>
         <v>Aluminium</v>
@@ -15249,7 +15740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="str">
         <f>list_material!A26</f>
         <v>Blei</v>
@@ -15354,7 +15845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="str">
         <f>list_material!A27</f>
         <v>Chrom</v>
@@ -15459,7 +15950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="str">
         <f>list_material!A28</f>
         <v>Eisen</v>
@@ -15564,7 +16055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="str">
         <f>list_material!A29</f>
         <v>Kupfer</v>
@@ -15669,7 +16160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="str">
         <f>list_material!A30</f>
         <v>Magnesium</v>
@@ -15774,7 +16265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="str">
         <f>list_material!A31</f>
         <v>Nickel</v>
@@ -15879,7 +16370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="str">
         <f>list_material!A32</f>
         <v>Stahl</v>
@@ -15984,7 +16475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="str">
         <f>list_material!A33</f>
         <v>Titan</v>
@@ -16089,7 +16580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="str">
         <f>list_material!A34</f>
         <v>Zink</v>
@@ -16201,177 +16692,177 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84FB39F2-18C7-4C89-AECD-A2AD62B3166C}">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.81640625" customWidth="1"/>
+    <col min="3" max="3" width="36.54296875" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>84</v>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="D2" s="2">
         <v>3.2293514999999999</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
         <v>83</v>
       </c>
-      <c r="F2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>84</v>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>177</v>
       </c>
       <c r="D3" s="2">
         <v>1.483350978</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
         <v>84</v>
       </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>174</v>
+      </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>178</v>
       </c>
       <c r="D4" s="2">
         <v>1.7951503200000001</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>179</v>
       </c>
       <c r="D5" s="2">
         <v>1.472646299</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>2</v>
+        <v>180</v>
       </c>
       <c r="D6" s="2">
         <v>6.5326028423241009</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>84</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="2">
         <v>7.4334388599999999</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2">
         <v>2.86700022</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>84</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -16380,1236 +16871,1680 @@
         <v>3.8626744499999996</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>84</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>181</v>
       </c>
       <c r="D10" s="2">
         <v>3.8936325699999998</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>84</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>182</v>
       </c>
       <c r="D11" s="2">
         <v>15.927753800000001</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>84</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="2">
         <v>11.259249559999999</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>84</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>183</v>
       </c>
       <c r="D13" s="2">
         <v>2.3945330399999998</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>84</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>184</v>
       </c>
       <c r="D14" s="2">
         <v>3.7704276299999999</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>84</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>185</v>
       </c>
       <c r="D15" s="2">
         <v>3.4924026399999999</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>84</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>186</v>
       </c>
       <c r="D16" s="2">
         <v>1.9264394464046588</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>84</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17" s="2">
         <v>6.8778999600000006</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>84</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="D18" s="2">
         <v>2.3014216349999996</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>84</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19" s="2">
         <v>3.8073424797345647</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>84</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" s="2">
         <v>16.498015899999999</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>84</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="D21" s="2">
         <v>2.0777927000000003</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>84</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>189</v>
       </c>
       <c r="D22" s="2">
         <v>2.0777927000000003</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>84</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="2">
         <v>2.7661408427547185</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F23" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>84</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="2">
         <v>2.7104629628484824</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>84</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" s="2">
         <v>2.0333930266696303</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F25" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>84</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D26" s="2">
         <v>2.2436461150874316</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>84</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D27" s="2">
         <v>1.9196351781017726</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F27" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>84</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D28" s="2">
         <v>3.0008768014334399</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F28" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>84</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D29" s="2">
         <v>3.4955933198448426</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F29" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>84</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D30" s="2">
         <v>3.0347490053180035</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F30" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>84</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="D31" s="2">
         <v>3.2086986548248033</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F31" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>84</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D32" s="2">
         <v>7.0347490053180026</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F32" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>84</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D33" s="2">
         <v>4.434749005318003</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>84</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D34" s="2">
         <v>4.3015621409999998</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F34" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>84</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D35" s="2">
         <v>0.96358369003060618</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F35" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>84</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D36" s="2">
         <v>5.2635887249143902</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B38" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="9"/>
+      <c r="B38" s="1"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="9" t="str">
+        <f>_xlfn.CONCAT(A39,"_DE_",B39)</f>
+        <v>production-metal_DE_Aluminium</v>
+      </c>
+      <c r="D39" s="10">
+        <v>10</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="C40" s="9" t="str">
+        <f t="shared" ref="C40:C48" si="0">_xlfn.CONCAT(A40,"_DE_",B40)</f>
+        <v>production-metal_DE_Blei</v>
+      </c>
+      <c r="D40" s="10">
+        <v>10</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B40" s="1" t="s">
+      <c r="C41" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>production-metal_DE_Chrom</v>
+      </c>
+      <c r="D41" s="10">
+        <v>10</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B41" s="1" t="s">
+      <c r="C42" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>production-metal_DE_Eisen</v>
+      </c>
+      <c r="D42" s="10">
+        <v>10</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B42" s="1" t="s">
+      <c r="C43" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>production-metal_DE_Kupfer</v>
+      </c>
+      <c r="D43" s="10">
+        <v>10</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B43" s="1" t="s">
+      <c r="C44" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>production-metal_DE_Magnesium</v>
+      </c>
+      <c r="D44" s="10">
+        <v>10</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B44" s="1" t="s">
+      <c r="C45" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>production-metal_DE_Nickel</v>
+      </c>
+      <c r="D45" s="10">
+        <v>10</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B45" s="1" t="s">
+      <c r="C46" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>production-metal_DE_Stahl</v>
+      </c>
+      <c r="D46" s="10">
+        <v>10</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B46" s="1" t="s">
+      <c r="C47" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>production-metal_DE_Titan</v>
+      </c>
+      <c r="D47" s="10">
+        <v>10</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>153</v>
-      </c>
-      <c r="B48" t="s">
-        <v>0</v>
-      </c>
-      <c r="C48" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48" s="2">
+      <c r="C48" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>production-metal_DE_Zink</v>
+      </c>
+      <c r="D48" s="10">
+        <v>10</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="9"/>
+      <c r="B49" s="1"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>149</v>
+      </c>
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="2">
         <v>2.1302565795000001</v>
       </c>
-      <c r="E48" t="s">
-        <v>83</v>
-      </c>
-      <c r="F48" t="str">
+      <c r="E50" t="s">
+        <v>82</v>
+      </c>
+      <c r="F50" t="str">
         <f>_xlfn.CONCAT('[1]Polymere Verbrennung'!J2,"_",'[1]Polymere Verbrennung'!K2)</f>
         <v>Gabi (2022.2)_DE: Acrylonitrile-butadiene-styrene (ABS) in waste incineration plant Sphera &lt;t-agg&gt;</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>153</v>
-      </c>
-      <c r="B49" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>149</v>
+      </c>
+      <c r="B51" t="s">
         <v>3</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C51" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D51" s="2">
         <v>2.7701714418000001</v>
       </c>
-      <c r="E49" t="s">
-        <v>83</v>
-      </c>
-      <c r="F49" t="str">
+      <c r="E51" t="s">
+        <v>82</v>
+      </c>
+      <c r="F51" t="str">
         <f>_xlfn.CONCAT('[1]Polymere Verbrennung'!J3,"_",'[1]Polymere Verbrennung'!K3)</f>
         <v>Gabi (2022.2)_DE: Polycarbonate (PC) in waste incineration plant Sphera &lt;t-agg&gt;</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>153</v>
-      </c>
-      <c r="B50" t="s">
-        <v>118</v>
-      </c>
-      <c r="C50" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>149</v>
+      </c>
+      <c r="B52" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D52" s="2">
         <v>3.1367363890400499</v>
       </c>
-      <c r="E50" t="s">
-        <v>83</v>
-      </c>
-      <c r="F50" t="str">
+      <c r="E52" t="s">
+        <v>82</v>
+      </c>
+      <c r="F52" t="str">
         <f>_xlfn.CONCAT('[1]Polymere Verbrennung'!J4,"_",'[1]Polymere Verbrennung'!K4)</f>
         <v>LCA for experts (2024.1)_DE: Polyethylene (PE) in waste incineration plant (0% H2O content) Sphera &lt;t-agg&gt;</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>153</v>
-      </c>
-      <c r="B51" t="s">
-        <v>118</v>
-      </c>
-      <c r="C51" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>149</v>
+      </c>
+      <c r="B53" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" t="s">
         <v>7</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D53" s="2">
         <v>3.1367363890400499</v>
       </c>
-      <c r="E51" t="s">
-        <v>83</v>
-      </c>
-      <c r="F51" t="str">
+      <c r="E53" t="s">
+        <v>82</v>
+      </c>
+      <c r="F53" t="str">
         <f>_xlfn.CONCAT('[1]Polymere Verbrennung'!J5,"_",'[1]Polymere Verbrennung'!K5)</f>
         <v>Gabi (2022.2)_DE: Polyethylene terephthalate (PET) in waste incineration plant Sphera &lt;t-agg&gt;</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>153</v>
-      </c>
-      <c r="B52" t="s">
-        <v>118</v>
-      </c>
-      <c r="C52" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>149</v>
+      </c>
+      <c r="B54" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" t="s">
         <v>5</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D54" s="2">
         <v>3.1367363890400499</v>
       </c>
-      <c r="E52" t="s">
-        <v>83</v>
-      </c>
-      <c r="F52" t="str">
+      <c r="E54" t="s">
+        <v>82</v>
+      </c>
+      <c r="F54" t="str">
         <f>_xlfn.CONCAT('[1]Polymere Verbrennung'!J6,"_",'[1]Polymere Verbrennung'!K6)</f>
         <v>Gabi (2022.2)_DE: Polyamide (PA) 6 in waste incineration plant Sphera &lt;t-agg&gt;</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>153</v>
-      </c>
-      <c r="B53" t="s">
-        <v>118</v>
-      </c>
-      <c r="C53" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>149</v>
+      </c>
+      <c r="B55" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D55" s="2">
         <v>3.1367363890400499</v>
       </c>
-      <c r="E53" t="s">
-        <v>83</v>
-      </c>
-      <c r="F53" t="str">
+      <c r="E55" t="s">
+        <v>82</v>
+      </c>
+      <c r="F55" t="str">
         <f>_xlfn.CONCAT('[1]Polymere Verbrennung'!J7,"_",'[1]Polymere Verbrennung'!K7)</f>
         <v>Gabi (2022.2)_DE: Polyamide (PA) 6.6 in waste incineration plant Sphera &lt;t-agg&gt;</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>153</v>
-      </c>
-      <c r="B54" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>149</v>
+      </c>
+      <c r="B56" t="s">
         <v>8</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C56" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D56" s="2">
         <v>2.3001702913999997</v>
       </c>
-      <c r="E54" t="s">
-        <v>83</v>
-      </c>
-      <c r="F54" t="str">
+      <c r="E56" t="s">
+        <v>82</v>
+      </c>
+      <c r="F56" t="str">
         <f>_xlfn.CONCAT('[1]Polymere Verbrennung'!J5,"_",'[1]Polymere Verbrennung'!K5)</f>
         <v>Gabi (2022.2)_DE: Polyethylene terephthalate (PET) in waste incineration plant Sphera &lt;t-agg&gt;</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>153</v>
-      </c>
-      <c r="B55" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>149</v>
+      </c>
+      <c r="B57" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D57" s="2">
         <v>2.2903481437999997</v>
       </c>
-      <c r="E55" t="s">
-        <v>83</v>
-      </c>
-      <c r="F55" t="str">
+      <c r="E57" t="s">
+        <v>82</v>
+      </c>
+      <c r="F57" t="str">
         <f>_xlfn.CONCAT('[1]Polymere Verbrennung'!J6,"_",'[1]Polymere Verbrennung'!K6)</f>
         <v>Gabi (2022.2)_DE: Polyamide (PA) 6 in waste incineration plant Sphera &lt;t-agg&gt;</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>153</v>
-      </c>
-      <c r="B56" t="s">
-        <v>64</v>
-      </c>
-      <c r="D56" s="2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>149</v>
+      </c>
+      <c r="B58" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" s="2">
         <v>2.3903562949000001</v>
       </c>
-      <c r="E56" t="s">
-        <v>83</v>
-      </c>
-      <c r="F56" t="str">
+      <c r="E58" t="s">
+        <v>82</v>
+      </c>
+      <c r="F58" t="str">
         <f>_xlfn.CONCAT('[1]Polymere Verbrennung'!J7,"_",'[1]Polymere Verbrennung'!K7)</f>
         <v>Gabi (2022.2)_DE: Polyamide (PA) 6.6 in waste incineration plant Sphera &lt;t-agg&gt;</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>153</v>
-      </c>
-      <c r="B57" t="s">
-        <v>70</v>
-      </c>
-      <c r="C57" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>149</v>
+      </c>
+      <c r="B59" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D59" s="2">
         <v>2.8009809059999999</v>
       </c>
-      <c r="E57" t="s">
-        <v>83</v>
-      </c>
-      <c r="F57" t="str">
+      <c r="E59" t="s">
+        <v>82</v>
+      </c>
+      <c r="F59" t="str">
         <f>_xlfn.CONCAT('[1]Polymere Verbrennung'!J8,"_",'[1]Polymere Verbrennung'!K8)</f>
         <v>GaBi (2022.2)_DE: Polyvinyl chloride (PVC) in waste incineration plant; waste-to-energy plant with dry flue gas treatment, without collection, transport and pre-treatment; production mix (region specific plants), at plant; 18.0 MJ/kg net calorific value</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>153</v>
-      </c>
-      <c r="B58" t="s">
-        <v>70</v>
-      </c>
-      <c r="C58" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D60" s="2">
         <v>2.8009809059999999</v>
       </c>
-      <c r="E58" t="s">
-        <v>83</v>
-      </c>
-      <c r="F58" t="str">
+      <c r="E60" t="s">
+        <v>82</v>
+      </c>
+      <c r="F60" t="str">
         <f>_xlfn.CONCAT('[1]Polymere Verbrennung'!J9,"_",'[1]Polymere Verbrennung'!K9)</f>
         <v>Gabi (2022.2)_DE: Plastics (unspecified) in waste incineration plant Sphera &lt;t-agg&gt;</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>153</v>
-      </c>
-      <c r="B59" t="s">
-        <v>119</v>
-      </c>
-      <c r="C59" t="s">
-        <v>42</v>
-      </c>
-      <c r="D59" s="2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>149</v>
+      </c>
+      <c r="B61" t="s">
+        <v>116</v>
+      </c>
+      <c r="C61" t="s">
+        <v>41</v>
+      </c>
+      <c r="D61" s="2">
         <v>2.3002068700999998</v>
       </c>
-      <c r="E59" t="s">
-        <v>83</v>
-      </c>
-      <c r="F59" t="str">
+      <c r="E61" t="s">
+        <v>82</v>
+      </c>
+      <c r="F61" t="str">
         <f>_xlfn.CONCAT('[1]Polymere Verbrennung'!J9,"_",'[1]Polymere Verbrennung'!K9)</f>
         <v>Gabi (2022.2)_DE: Plastics (unspecified) in waste incineration plant Sphera &lt;t-agg&gt;</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>153</v>
-      </c>
-      <c r="B60" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>149</v>
+      </c>
+      <c r="B62" t="s">
         <v>17</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C62" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D62" s="2">
         <v>3.1367363890400499</v>
       </c>
-      <c r="E60" t="s">
-        <v>83</v>
-      </c>
-      <c r="F60" t="str">
+      <c r="E62" t="s">
+        <v>82</v>
+      </c>
+      <c r="F62" t="str">
         <f>_xlfn.CONCAT('[1]Polymere Verbrennung'!J10,"_",'[1]Polymere Verbrennung'!K10)</f>
         <v>LCA for experts (2024.1)_DE: Polypropylene (PP) in waste incineration plant (0% H2O content) Sphera &lt;t-agg&gt;</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>153</v>
-      </c>
-      <c r="B61" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>149</v>
+      </c>
+      <c r="B63" t="s">
         <v>9</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C63" t="s">
         <v>9</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D63" s="2">
         <v>3.3801726523000002</v>
       </c>
-      <c r="E61" t="s">
-        <v>83</v>
-      </c>
-      <c r="F61" t="str">
+      <c r="E63" t="s">
+        <v>82</v>
+      </c>
+      <c r="F63" t="str">
         <f>_xlfn.CONCAT('[1]Polymere Verbrennung'!J11,"_",'[1]Polymere Verbrennung'!K11)</f>
         <v>Gabi (2022.2)_DE: Polystyrene (PS) in waste incineration plant Sphera &lt;t-agg&gt;</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>153</v>
-      </c>
-      <c r="B62" t="s">
-        <v>65</v>
-      </c>
-      <c r="D62" s="2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>149</v>
+      </c>
+      <c r="B64" t="s">
+        <v>64</v>
+      </c>
+      <c r="D64" s="2">
         <v>3.2501727024</v>
       </c>
-      <c r="E62" t="s">
-        <v>83</v>
-      </c>
-      <c r="F62" t="str">
+      <c r="E64" t="s">
+        <v>82</v>
+      </c>
+      <c r="F64" t="str">
         <f>_xlfn.CONCAT('[1]Polymere Verbrennung'!J12,"_",'[1]Polymere Verbrennung'!K12)</f>
         <v>Gabi (2022.2)_DE: Polybutadiene (PB) in waste incineration plant Sphera &lt;t-agg&gt;, waste-to-energy plant with dry flue gas treatment, without collection, transport and pre-treatment, production mix (region specific plants), at plant, 41.6 MJ/kg net calorific value</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>153</v>
-      </c>
-      <c r="B63" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>149</v>
+      </c>
+      <c r="B65" t="s">
         <v>23</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C65" t="s">
         <v>23</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D65" s="2">
         <v>2.2101703515</v>
       </c>
-      <c r="E63" t="s">
-        <v>83</v>
-      </c>
-      <c r="F63" t="str">
+      <c r="E65" t="s">
+        <v>82</v>
+      </c>
+      <c r="F65" t="str">
         <f>_xlfn.CONCAT('[1]Polymere Verbrennung'!J13,"_",'[1]Polymere Verbrennung'!K13)</f>
         <v>Gabi (2022.2)_DE: Polymethylmethacrylate (PMMA) in waste incineration plant Sphera &lt;t-agg&gt;, waste-to-energy plant with dry flue gas treatment, without collection, transport and pre-treatment, production mix (region specific plants), at plant, 25.1 MJ/kg net calorific value</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>149</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D67" s="10">
+        <v>0</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>149</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D68" s="10">
+        <v>0</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>149</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D69" s="10">
+        <v>0</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>149</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D70" s="10">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>149</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D71" s="10">
+        <v>0</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>149</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D72" s="10">
+        <v>0</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>149</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D73" s="10">
+        <v>0</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D74" s="10">
+        <v>0</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>149</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D75" s="10">
+        <v>0</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D76" s="10">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="9"/>
+      <c r="B77" s="1"/>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>156</v>
+      </c>
+      <c r="B78" t="s">
+        <v>117</v>
+      </c>
+      <c r="C78" t="s">
+        <v>157</v>
+      </c>
+      <c r="D78" s="2">
+        <v>4.8232287999999998E-2</v>
+      </c>
+      <c r="E78" t="s">
+        <v>126</v>
+      </c>
+      <c r="F78" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>155</v>
+      </c>
+      <c r="B79" t="s">
+        <v>167</v>
+      </c>
+      <c r="C79" t="s">
+        <v>168</v>
+      </c>
+      <c r="D79" s="2">
+        <v>1.10681008</v>
+      </c>
+      <c r="E79" t="s">
+        <v>126</v>
+      </c>
+      <c r="F79" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D81" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>154</v>
+      </c>
+      <c r="B82" t="s">
+        <v>118</v>
+      </c>
+      <c r="C82" t="s">
+        <v>159</v>
+      </c>
+      <c r="D82" s="2">
+        <v>0.39970831275007851</v>
+      </c>
+      <c r="E82" t="s">
+        <v>129</v>
+      </c>
+      <c r="F82" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>154</v>
+      </c>
+      <c r="B83" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" t="s">
+        <v>160</v>
+      </c>
+      <c r="D83" s="2">
+        <v>0.24423822562094591</v>
+      </c>
+      <c r="E83" t="s">
+        <v>129</v>
+      </c>
+      <c r="F83" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>154</v>
+      </c>
+      <c r="B84" t="s">
+        <v>120</v>
+      </c>
+      <c r="C84" t="s">
+        <v>161</v>
+      </c>
+      <c r="D84" s="2">
+        <v>0.11525018296731784</v>
+      </c>
+      <c r="E84" t="s">
+        <v>129</v>
+      </c>
+      <c r="F84" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>154</v>
+      </c>
+      <c r="B85" t="s">
+        <v>121</v>
+      </c>
+      <c r="C85" t="s">
         <v>162</v>
       </c>
-      <c r="B64" t="s">
-        <v>120</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="D85" s="2">
+        <v>6.5184568658291961E-2</v>
+      </c>
+      <c r="E85" t="s">
+        <v>129</v>
+      </c>
+      <c r="F85" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>154</v>
+      </c>
+      <c r="B86" t="s">
+        <v>122</v>
+      </c>
+      <c r="C86" t="s">
         <v>163</v>
       </c>
-      <c r="D64" s="2">
-        <v>4.8232287999999998E-2</v>
-      </c>
-      <c r="E64" t="s">
-        <v>130</v>
-      </c>
-      <c r="F64" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>160</v>
-      </c>
-      <c r="B65" t="s">
-        <v>121</v>
-      </c>
-      <c r="C65" t="s">
-        <v>161</v>
-      </c>
-      <c r="D65" s="2">
-        <v>1.10681008</v>
-      </c>
-      <c r="E65" t="s">
-        <v>130</v>
-      </c>
-      <c r="F65" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D66" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>159</v>
-      </c>
-      <c r="B67" t="s">
-        <v>122</v>
-      </c>
-      <c r="C67" t="s">
-        <v>166</v>
-      </c>
-      <c r="D67" s="2">
-        <v>0.39970831275007851</v>
-      </c>
-      <c r="E67" t="s">
-        <v>133</v>
-      </c>
-      <c r="F67" t="s">
+      <c r="D86" s="2">
+        <v>6.0594767899999997E-3</v>
+      </c>
+      <c r="E86" t="s">
+        <v>129</v>
+      </c>
+      <c r="F86" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>159</v>
-      </c>
-      <c r="B68" t="s">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>154</v>
+      </c>
+      <c r="B87" t="s">
         <v>123</v>
       </c>
-      <c r="C68" t="s">
-        <v>167</v>
-      </c>
-      <c r="D68" s="2">
-        <v>0.24423822562094591</v>
-      </c>
-      <c r="E68" t="s">
-        <v>133</v>
-      </c>
-      <c r="F68" t="s">
+      <c r="C87" t="s">
+        <v>164</v>
+      </c>
+      <c r="D87" s="2">
+        <v>9.5242999999999994E-3</v>
+      </c>
+      <c r="E87" t="s">
+        <v>129</v>
+      </c>
+      <c r="F87" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>159</v>
-      </c>
-      <c r="B69" t="s">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>154</v>
+      </c>
+      <c r="B88" t="s">
         <v>124</v>
       </c>
-      <c r="C69" t="s">
-        <v>168</v>
-      </c>
-      <c r="D69" s="2">
-        <v>0.11525018296731784</v>
-      </c>
-      <c r="E69" t="s">
-        <v>133</v>
-      </c>
-      <c r="F69" t="s">
+      <c r="C88" t="s">
+        <v>165</v>
+      </c>
+      <c r="D88" s="2">
+        <v>3.5394460000000003E-2</v>
+      </c>
+      <c r="E88" t="s">
+        <v>129</v>
+      </c>
+      <c r="F88" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>159</v>
-      </c>
-      <c r="B70" t="s">
+    <row r="89" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D89" s="8">
+        <v>1</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>153</v>
+      </c>
+      <c r="B90" t="s">
         <v>125</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C90" t="s">
+        <v>152</v>
+      </c>
+      <c r="D90" s="2">
+        <v>6.5247201979190747E-2</v>
+      </c>
+      <c r="E90" t="s">
+        <v>137</v>
+      </c>
+      <c r="F90" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>139</v>
+      </c>
+      <c r="B91" t="s">
+        <v>141</v>
+      </c>
+      <c r="C91" t="s">
+        <v>148</v>
+      </c>
+      <c r="D91" s="2">
+        <v>7.5687004170000002E-2</v>
+      </c>
+      <c r="E91" t="s">
+        <v>140</v>
+      </c>
+      <c r="F91" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C92" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C93" t="s">
         <v>169</v>
       </c>
-      <c r="D70" s="2">
-        <v>6.5184568658291961E-2</v>
-      </c>
-      <c r="E70" t="s">
-        <v>133</v>
-      </c>
-      <c r="F70" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>159</v>
-      </c>
-      <c r="B71" t="s">
-        <v>126</v>
-      </c>
-      <c r="C71" t="s">
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
         <v>170</v>
       </c>
-      <c r="D71" s="2">
-        <v>6.0594767899999997E-3</v>
-      </c>
-      <c r="E71" t="s">
-        <v>133</v>
-      </c>
-      <c r="F71" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>159</v>
-      </c>
-      <c r="B72" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="B95" t="s">
         <v>171</v>
       </c>
-      <c r="D72" s="2">
-        <v>9.5242999999999994E-3</v>
-      </c>
-      <c r="E72" t="s">
-        <v>133</v>
-      </c>
-      <c r="F72" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>159</v>
-      </c>
-      <c r="B73" t="s">
-        <v>128</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="C95" t="s">
         <v>172</v>
       </c>
-      <c r="D73" s="2">
-        <v>3.5394460000000003E-2</v>
-      </c>
-      <c r="E73" t="s">
-        <v>133</v>
-      </c>
-      <c r="F73" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D74" s="8">
-        <v>1</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>158</v>
-      </c>
-      <c r="B75" t="s">
-        <v>129</v>
-      </c>
-      <c r="C75" t="s">
-        <v>157</v>
-      </c>
-      <c r="D75" s="2">
-        <v>6.5247201979190747E-2</v>
-      </c>
-      <c r="E75" t="s">
-        <v>141</v>
-      </c>
-      <c r="F75" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>143</v>
-      </c>
-      <c r="B76" t="s">
-        <v>145</v>
-      </c>
-      <c r="C76" t="s">
-        <v>152</v>
-      </c>
-      <c r="D76" s="2">
-        <v>7.5687004170000002E-2</v>
-      </c>
-      <c r="E76" t="s">
-        <v>144</v>
-      </c>
-      <c r="F76" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C77" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C78" t="s">
-        <v>165</v>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>191</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C97" t="str">
+        <f>_xlfn.CONCAT(A97,"_DE_",B97)</f>
+        <v>melting-metal_DE_Aluminium</v>
+      </c>
+      <c r="D97" s="10">
+        <v>0</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>191</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" ref="C98:C106" si="1">_xlfn.CONCAT(A98,"_DE_",B98)</f>
+        <v>melting-metal_DE_Blei</v>
+      </c>
+      <c r="D98" s="10">
+        <v>0</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>191</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" si="1"/>
+        <v>melting-metal_DE_Chrom</v>
+      </c>
+      <c r="D99" s="10">
+        <v>0</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>191</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" si="1"/>
+        <v>melting-metal_DE_Eisen</v>
+      </c>
+      <c r="D100" s="10">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>191</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="1"/>
+        <v>melting-metal_DE_Kupfer</v>
+      </c>
+      <c r="D101" s="10">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>191</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" si="1"/>
+        <v>melting-metal_DE_Magnesium</v>
+      </c>
+      <c r="D102" s="10">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>191</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" si="1"/>
+        <v>melting-metal_DE_Nickel</v>
+      </c>
+      <c r="D103" s="10">
+        <v>0</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>191</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" si="1"/>
+        <v>melting-metal_DE_Stahl</v>
+      </c>
+      <c r="D104" s="10">
+        <v>0</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>191</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" si="1"/>
+        <v>melting-metal_DE_Titan</v>
+      </c>
+      <c r="D105" s="10">
+        <v>0</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>191</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" si="1"/>
+        <v>melting-metal_DE_Zink</v>
+      </c>
+      <c r="D106" s="10">
+        <v>0</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/content/background_data_decision_tree.xlsx
+++ b/content/background_data_decision_tree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://skznet-my.sharepoint.com/personal/j_werner_skz_de/Documents/PlastIQ/Bearbeitung/AP3_Generische Modelle/Entwicklung Entscheidungsschema/02_Hintergrunddaten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="659" documentId="8_{03825F57-9271-4F19-AB31-225796C02C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72B128A2-0F49-4640-ADDE-3808BC56B34F}"/>
+  <xr:revisionPtr revIDLastSave="692" documentId="8_{03825F57-9271-4F19-AB31-225796C02C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C6A3DC6-B4E7-46A9-AA6F-F7CB29D4FE4A}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-7665" windowWidth="29040" windowHeight="17640" xr2:uid="{9E0EC3E4-013A-49B8-ADD7-0C11DDD362E4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="5" xr2:uid="{9E0EC3E4-013A-49B8-ADD7-0C11DDD362E4}"/>
   </bookViews>
   <sheets>
     <sheet name="list_material" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,11 @@
     <sheet name="sort_eddycurrent" sheetId="3" r:id="rId3"/>
     <sheet name="sort_density" sheetId="4" r:id="rId4"/>
     <sheet name="sort_electrostatic" sheetId="5" r:id="rId5"/>
-    <sheet name="lca_calculation" sheetId="6" r:id="rId6"/>
+    <sheet name="sort_sensorbased" sheetId="7" r:id="rId6"/>
+    <sheet name="lca_calculation" sheetId="6" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="196">
   <si>
     <t>ABS</t>
   </si>
@@ -1156,7 +1157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92B8105-A295-40FF-8933-641BD1D0C7D7}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -2223,8 +2224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{297DECE7-6377-4FBB-8C80-8873C3452F24}">
   <dimension ref="A1:AH34"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AH34"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13077,8 +13078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838AB6B0-29DE-4DD8-811D-133F3C156F7B}">
   <dimension ref="A1:AH34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16691,6 +16692,3624 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D1A6FC-3E56-461B-B763-C2D2BC11EE1A}">
+  <dimension ref="A1:AH34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:AH34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="9" t="str">
+        <f>A2</f>
+        <v>PE-LD</v>
+      </c>
+      <c r="C1" s="9" t="str">
+        <f>A3</f>
+        <v>PE-LLD</v>
+      </c>
+      <c r="D1" s="9" t="str">
+        <f>A4</f>
+        <v>PE-HD</v>
+      </c>
+      <c r="E1" s="9" t="str">
+        <f>A5</f>
+        <v>PE-MD</v>
+      </c>
+      <c r="F1" s="9" t="str">
+        <f>A6</f>
+        <v>PP</v>
+      </c>
+      <c r="G1" s="9" t="str">
+        <f>A7</f>
+        <v>PS</v>
+      </c>
+      <c r="H1" s="9" t="str">
+        <f>A8</f>
+        <v>PS-E/XPS</v>
+      </c>
+      <c r="I1" s="9" t="str">
+        <f>A9</f>
+        <v>PVC-U</v>
+      </c>
+      <c r="J1" s="9" t="str">
+        <f>A10</f>
+        <v>PVC-P</v>
+      </c>
+      <c r="K1" s="9" t="str">
+        <f>A11</f>
+        <v>ABS</v>
+      </c>
+      <c r="L1" s="9" t="str">
+        <f>A12</f>
+        <v>ASA</v>
+      </c>
+      <c r="M1" s="9" t="str">
+        <f>A13</f>
+        <v>SAN</v>
+      </c>
+      <c r="N1" s="9" t="str">
+        <f>A14</f>
+        <v>PMMA</v>
+      </c>
+      <c r="O1" s="9" t="str">
+        <f>A15</f>
+        <v>PA</v>
+      </c>
+      <c r="P1" s="9" t="str">
+        <f>A16</f>
+        <v>PET</v>
+      </c>
+      <c r="Q1" s="9" t="str">
+        <f>A17</f>
+        <v>POM</v>
+      </c>
+      <c r="R1" s="9" t="str">
+        <f>A18</f>
+        <v>PBT</v>
+      </c>
+      <c r="S1" s="9" t="str">
+        <f>A19</f>
+        <v>PEEK</v>
+      </c>
+      <c r="T1" s="9" t="str">
+        <f>A20</f>
+        <v>PC</v>
+      </c>
+      <c r="U1" s="9" t="str">
+        <f>A21</f>
+        <v>PUR</v>
+      </c>
+      <c r="V1" s="1" t="str">
+        <f>A22</f>
+        <v>Thermoplaste</v>
+      </c>
+      <c r="W1" s="1" t="str">
+        <f>A23</f>
+        <v>Elastomere</v>
+      </c>
+      <c r="X1" s="1" t="str">
+        <f>A24</f>
+        <v>Duromere</v>
+      </c>
+      <c r="Y1" s="1" t="str">
+        <f>A25</f>
+        <v>Aluminium</v>
+      </c>
+      <c r="Z1" s="1" t="str">
+        <f>A26</f>
+        <v>Blei</v>
+      </c>
+      <c r="AA1" s="1" t="str">
+        <f>A27</f>
+        <v>Chrom</v>
+      </c>
+      <c r="AB1" s="1" t="str">
+        <f>A28</f>
+        <v>Eisen</v>
+      </c>
+      <c r="AC1" s="1" t="str">
+        <f>A29</f>
+        <v>Kupfer</v>
+      </c>
+      <c r="AD1" s="1" t="str">
+        <f>A30</f>
+        <v>Magnesium</v>
+      </c>
+      <c r="AE1" s="1" t="str">
+        <f>A31</f>
+        <v>Nickel</v>
+      </c>
+      <c r="AF1" s="1" t="str">
+        <f>A32</f>
+        <v>Stahl</v>
+      </c>
+      <c r="AG1" s="1" t="str">
+        <f>A33</f>
+        <v>Titan</v>
+      </c>
+      <c r="AH1" s="1" t="str">
+        <f>A34</f>
+        <v>Zink</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="str">
+        <f>list_material!A2</f>
+        <v>PE-LD</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="F2" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="H2" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="J2" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="K2" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="L2" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="M2" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="N2" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="O2" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="P2" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="R2" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="S2" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="T2" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="U2" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="V2" s="9">
+        <v>0</v>
+      </c>
+      <c r="W2" s="9">
+        <v>0</v>
+      </c>
+      <c r="X2" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="str">
+        <f>list_material!A3</f>
+        <v>PE-LLD</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="L3" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="M3" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="N3" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="O3" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="P3" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="R3" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="S3" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="T3" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="U3" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="V3" s="9">
+        <v>0</v>
+      </c>
+      <c r="W3" s="9">
+        <v>0</v>
+      </c>
+      <c r="X3" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="str">
+        <f>list_material!A4</f>
+        <v>PE-HD</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="N4" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="O4" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="P4" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="R4" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="S4" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="T4" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="U4" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="V4" s="9">
+        <v>0</v>
+      </c>
+      <c r="W4" s="9">
+        <v>0</v>
+      </c>
+      <c r="X4" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="str">
+        <f>list_material!A5</f>
+        <v>PE-MD</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="M5" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="N5" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="O5" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="P5" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="R5" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="S5" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="T5" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="U5" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="V5" s="9">
+        <v>0</v>
+      </c>
+      <c r="W5" s="9">
+        <v>0</v>
+      </c>
+      <c r="X5" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="str">
+        <f>list_material!A6</f>
+        <v>PP</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="O6" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="R6" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="S6" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="T6" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="U6" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="V6" s="9">
+        <v>0</v>
+      </c>
+      <c r="W6" s="9">
+        <v>0</v>
+      </c>
+      <c r="X6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="str">
+        <f>list_material!A7</f>
+        <v>PS</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="R7" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="S7" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="T7" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="U7" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="V7" s="9">
+        <v>0</v>
+      </c>
+      <c r="W7" s="9">
+        <v>0</v>
+      </c>
+      <c r="X7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="str">
+        <f>list_material!A8</f>
+        <v>PS-E/XPS</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="L8" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="M8" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="O8" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="P8" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="R8" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="S8" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="T8" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="U8" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="V8" s="9">
+        <v>0</v>
+      </c>
+      <c r="W8" s="9">
+        <v>0</v>
+      </c>
+      <c r="X8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="str">
+        <f>list_material!A9</f>
+        <v>PVC-U</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="O9" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="P9" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="R9" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="S9" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="T9" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="U9" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="V9" s="9">
+        <v>0</v>
+      </c>
+      <c r="W9" s="9">
+        <v>0</v>
+      </c>
+      <c r="X9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="str">
+        <f>list_material!A10</f>
+        <v>PVC-P</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="O10" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="P10" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="R10" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="S10" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="T10" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="U10" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="V10" s="9">
+        <v>0</v>
+      </c>
+      <c r="W10" s="9">
+        <v>0</v>
+      </c>
+      <c r="X10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="str">
+        <f>list_material!A11</f>
+        <v>ABS</v>
+      </c>
+      <c r="B11" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="M11" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="N11" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="O11" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="P11" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="R11" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="S11" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="T11" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="U11" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="V11" s="9">
+        <v>0</v>
+      </c>
+      <c r="W11" s="9">
+        <v>0</v>
+      </c>
+      <c r="X11" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="str">
+        <f>list_material!A12</f>
+        <v>ASA</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="O12" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="P12" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="R12" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="S12" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="T12" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="U12" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="V12" s="9">
+        <v>0</v>
+      </c>
+      <c r="W12" s="9">
+        <v>0</v>
+      </c>
+      <c r="X12" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="str">
+        <f>list_material!A13</f>
+        <v>SAN</v>
+      </c>
+      <c r="B13" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="L13" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="M13" s="9">
+        <v>0</v>
+      </c>
+      <c r="N13" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="O13" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="P13" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="R13" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="S13" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="T13" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="U13" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="V13" s="9">
+        <v>0</v>
+      </c>
+      <c r="W13" s="9">
+        <v>0</v>
+      </c>
+      <c r="X13" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="str">
+        <f>list_material!A14</f>
+        <v>PMMA</v>
+      </c>
+      <c r="B14" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+      <c r="O14" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="P14" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="R14" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="S14" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="T14" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="U14" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="V14" s="9">
+        <v>0</v>
+      </c>
+      <c r="W14" s="9">
+        <v>0</v>
+      </c>
+      <c r="X14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="str">
+        <f>list_material!A15</f>
+        <v>PA</v>
+      </c>
+      <c r="B15" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="J15" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="M15" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="N15" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="O15" s="9">
+        <v>0</v>
+      </c>
+      <c r="P15" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="R15" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="S15" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="T15" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="U15" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="V15" s="9">
+        <v>0</v>
+      </c>
+      <c r="W15" s="9">
+        <v>0</v>
+      </c>
+      <c r="X15" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="str">
+        <f>list_material!A16</f>
+        <v>PET</v>
+      </c>
+      <c r="B16" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="J16" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="O16" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="P16" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="R16" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="S16" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="T16" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="U16" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="V16" s="9">
+        <v>0</v>
+      </c>
+      <c r="W16" s="9">
+        <v>0</v>
+      </c>
+      <c r="X16" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="str">
+        <f>list_material!A17</f>
+        <v>POM</v>
+      </c>
+      <c r="B17" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="M17" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="N17" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="O17" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="P17" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>0</v>
+      </c>
+      <c r="R17" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="S17" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="T17" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="U17" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="V17" s="9">
+        <v>0</v>
+      </c>
+      <c r="W17" s="9">
+        <v>0</v>
+      </c>
+      <c r="X17" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="str">
+        <f>list_material!A18</f>
+        <v>PBT</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="O18" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="P18" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="R18" s="9">
+        <v>0</v>
+      </c>
+      <c r="S18" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="T18" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="U18" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="V18" s="9">
+        <v>0</v>
+      </c>
+      <c r="W18" s="9">
+        <v>0</v>
+      </c>
+      <c r="X18" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="str">
+        <f>list_material!A19</f>
+        <v>PEEK</v>
+      </c>
+      <c r="B19" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="J19" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="L19" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="M19" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="N19" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="O19" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="P19" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="R19" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="S19" s="9">
+        <v>0</v>
+      </c>
+      <c r="T19" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="U19" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="V19" s="9">
+        <v>0</v>
+      </c>
+      <c r="W19" s="9">
+        <v>0</v>
+      </c>
+      <c r="X19" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="str">
+        <f>list_material!A20</f>
+        <v>PC</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="J20" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="L20" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="M20" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="N20" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="O20" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="P20" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="R20" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="S20" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="T20" s="9">
+        <v>0</v>
+      </c>
+      <c r="U20" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="V20" s="9">
+        <v>0</v>
+      </c>
+      <c r="W20" s="9">
+        <v>0</v>
+      </c>
+      <c r="X20" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="str">
+        <f>list_material!A21</f>
+        <v>PUR</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="J21" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="M21" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="N21" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="O21" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="P21" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="R21" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="S21" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="T21" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="U21" s="9">
+        <v>0</v>
+      </c>
+      <c r="V21" s="9">
+        <v>0</v>
+      </c>
+      <c r="W21" s="9">
+        <v>0</v>
+      </c>
+      <c r="X21" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="str">
+        <f>list_material!A22</f>
+        <v>Thermoplaste</v>
+      </c>
+      <c r="B22" s="9">
+        <v>0</v>
+      </c>
+      <c r="C22" s="9">
+        <v>0</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+      <c r="O22" s="9">
+        <v>0</v>
+      </c>
+      <c r="P22" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>0</v>
+      </c>
+      <c r="R22" s="9">
+        <v>0</v>
+      </c>
+      <c r="S22" s="9">
+        <v>0</v>
+      </c>
+      <c r="T22" s="9">
+        <v>0</v>
+      </c>
+      <c r="U22" s="9">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22" s="9">
+        <v>0</v>
+      </c>
+      <c r="X22" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="str">
+        <f>list_material!A23</f>
+        <v>Elastomere</v>
+      </c>
+      <c r="B23" s="9">
+        <v>0</v>
+      </c>
+      <c r="C23" s="9">
+        <v>0</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0</v>
+      </c>
+      <c r="F23" s="9">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9">
+        <v>0</v>
+      </c>
+      <c r="J23" s="9">
+        <v>0</v>
+      </c>
+      <c r="K23" s="9">
+        <v>0</v>
+      </c>
+      <c r="L23" s="9">
+        <v>0</v>
+      </c>
+      <c r="M23" s="9">
+        <v>0</v>
+      </c>
+      <c r="N23" s="9">
+        <v>0</v>
+      </c>
+      <c r="O23" s="9">
+        <v>0</v>
+      </c>
+      <c r="P23" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>0</v>
+      </c>
+      <c r="R23" s="9">
+        <v>0</v>
+      </c>
+      <c r="S23" s="9">
+        <v>0</v>
+      </c>
+      <c r="T23" s="9">
+        <v>0</v>
+      </c>
+      <c r="U23" s="9">
+        <v>0</v>
+      </c>
+      <c r="V23" s="9">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="str">
+        <f>list_material!A24</f>
+        <v>Duromere</v>
+      </c>
+      <c r="B24" s="9">
+        <v>0</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0</v>
+      </c>
+      <c r="F24" s="9">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0</v>
+      </c>
+      <c r="J24" s="9">
+        <v>0</v>
+      </c>
+      <c r="K24" s="9">
+        <v>0</v>
+      </c>
+      <c r="L24" s="9">
+        <v>0</v>
+      </c>
+      <c r="M24" s="9">
+        <v>0</v>
+      </c>
+      <c r="N24" s="9">
+        <v>0</v>
+      </c>
+      <c r="O24" s="9">
+        <v>0</v>
+      </c>
+      <c r="P24" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>0</v>
+      </c>
+      <c r="R24" s="9">
+        <v>0</v>
+      </c>
+      <c r="S24" s="9">
+        <v>0</v>
+      </c>
+      <c r="T24" s="9">
+        <v>0</v>
+      </c>
+      <c r="U24" s="9">
+        <v>0</v>
+      </c>
+      <c r="V24" s="9">
+        <v>0</v>
+      </c>
+      <c r="W24" s="9">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="str">
+        <f>list_material!A25</f>
+        <v>Aluminium</v>
+      </c>
+      <c r="B25" s="9">
+        <v>0</v>
+      </c>
+      <c r="C25" s="9">
+        <v>0</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0</v>
+      </c>
+      <c r="F25" s="9">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0</v>
+      </c>
+      <c r="K25" s="9">
+        <v>0</v>
+      </c>
+      <c r="L25" s="9">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9">
+        <v>0</v>
+      </c>
+      <c r="N25" s="9">
+        <v>0</v>
+      </c>
+      <c r="O25" s="9">
+        <v>0</v>
+      </c>
+      <c r="P25" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>0</v>
+      </c>
+      <c r="R25" s="9">
+        <v>0</v>
+      </c>
+      <c r="S25" s="9">
+        <v>0</v>
+      </c>
+      <c r="T25" s="9">
+        <v>0</v>
+      </c>
+      <c r="U25" s="9">
+        <v>0</v>
+      </c>
+      <c r="V25" s="9">
+        <v>0</v>
+      </c>
+      <c r="W25" s="9">
+        <v>0</v>
+      </c>
+      <c r="X25" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="str">
+        <f>list_material!A26</f>
+        <v>Blei</v>
+      </c>
+      <c r="B26" s="9">
+        <v>0</v>
+      </c>
+      <c r="C26" s="9">
+        <v>0</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0</v>
+      </c>
+      <c r="F26" s="9">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9">
+        <v>0</v>
+      </c>
+      <c r="J26" s="9">
+        <v>0</v>
+      </c>
+      <c r="K26" s="9">
+        <v>0</v>
+      </c>
+      <c r="L26" s="9">
+        <v>0</v>
+      </c>
+      <c r="M26" s="9">
+        <v>0</v>
+      </c>
+      <c r="N26" s="9">
+        <v>0</v>
+      </c>
+      <c r="O26" s="9">
+        <v>0</v>
+      </c>
+      <c r="P26" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>0</v>
+      </c>
+      <c r="R26" s="9">
+        <v>0</v>
+      </c>
+      <c r="S26" s="9">
+        <v>0</v>
+      </c>
+      <c r="T26" s="9">
+        <v>0</v>
+      </c>
+      <c r="U26" s="9">
+        <v>0</v>
+      </c>
+      <c r="V26" s="9">
+        <v>0</v>
+      </c>
+      <c r="W26" s="9">
+        <v>0</v>
+      </c>
+      <c r="X26" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="str">
+        <f>list_material!A27</f>
+        <v>Chrom</v>
+      </c>
+      <c r="B27" s="9">
+        <v>0</v>
+      </c>
+      <c r="C27" s="9">
+        <v>0</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0</v>
+      </c>
+      <c r="F27" s="9">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0</v>
+      </c>
+      <c r="H27" s="9">
+        <v>0</v>
+      </c>
+      <c r="I27" s="9">
+        <v>0</v>
+      </c>
+      <c r="J27" s="9">
+        <v>0</v>
+      </c>
+      <c r="K27" s="9">
+        <v>0</v>
+      </c>
+      <c r="L27" s="9">
+        <v>0</v>
+      </c>
+      <c r="M27" s="9">
+        <v>0</v>
+      </c>
+      <c r="N27" s="9">
+        <v>0</v>
+      </c>
+      <c r="O27" s="9">
+        <v>0</v>
+      </c>
+      <c r="P27" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>0</v>
+      </c>
+      <c r="R27" s="9">
+        <v>0</v>
+      </c>
+      <c r="S27" s="9">
+        <v>0</v>
+      </c>
+      <c r="T27" s="9">
+        <v>0</v>
+      </c>
+      <c r="U27" s="9">
+        <v>0</v>
+      </c>
+      <c r="V27" s="9">
+        <v>0</v>
+      </c>
+      <c r="W27" s="9">
+        <v>0</v>
+      </c>
+      <c r="X27" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="str">
+        <f>list_material!A28</f>
+        <v>Eisen</v>
+      </c>
+      <c r="B28" s="9">
+        <v>0</v>
+      </c>
+      <c r="C28" s="9">
+        <v>0</v>
+      </c>
+      <c r="D28" s="9">
+        <v>0</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0</v>
+      </c>
+      <c r="F28" s="9">
+        <v>0</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9">
+        <v>0</v>
+      </c>
+      <c r="I28" s="9">
+        <v>0</v>
+      </c>
+      <c r="J28" s="9">
+        <v>0</v>
+      </c>
+      <c r="K28" s="9">
+        <v>0</v>
+      </c>
+      <c r="L28" s="9">
+        <v>0</v>
+      </c>
+      <c r="M28" s="9">
+        <v>0</v>
+      </c>
+      <c r="N28" s="9">
+        <v>0</v>
+      </c>
+      <c r="O28" s="9">
+        <v>0</v>
+      </c>
+      <c r="P28" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>0</v>
+      </c>
+      <c r="R28" s="9">
+        <v>0</v>
+      </c>
+      <c r="S28" s="9">
+        <v>0</v>
+      </c>
+      <c r="T28" s="9">
+        <v>0</v>
+      </c>
+      <c r="U28" s="9">
+        <v>0</v>
+      </c>
+      <c r="V28" s="9">
+        <v>0</v>
+      </c>
+      <c r="W28" s="9">
+        <v>0</v>
+      </c>
+      <c r="X28" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="str">
+        <f>list_material!A29</f>
+        <v>Kupfer</v>
+      </c>
+      <c r="B29" s="9">
+        <v>0</v>
+      </c>
+      <c r="C29" s="9">
+        <v>0</v>
+      </c>
+      <c r="D29" s="9">
+        <v>0</v>
+      </c>
+      <c r="E29" s="9">
+        <v>0</v>
+      </c>
+      <c r="F29" s="9">
+        <v>0</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0</v>
+      </c>
+      <c r="I29" s="9">
+        <v>0</v>
+      </c>
+      <c r="J29" s="9">
+        <v>0</v>
+      </c>
+      <c r="K29" s="9">
+        <v>0</v>
+      </c>
+      <c r="L29" s="9">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9">
+        <v>0</v>
+      </c>
+      <c r="N29" s="9">
+        <v>0</v>
+      </c>
+      <c r="O29" s="9">
+        <v>0</v>
+      </c>
+      <c r="P29" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="9">
+        <v>0</v>
+      </c>
+      <c r="R29" s="9">
+        <v>0</v>
+      </c>
+      <c r="S29" s="9">
+        <v>0</v>
+      </c>
+      <c r="T29" s="9">
+        <v>0</v>
+      </c>
+      <c r="U29" s="9">
+        <v>0</v>
+      </c>
+      <c r="V29" s="9">
+        <v>0</v>
+      </c>
+      <c r="W29" s="9">
+        <v>0</v>
+      </c>
+      <c r="X29" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="str">
+        <f>list_material!A30</f>
+        <v>Magnesium</v>
+      </c>
+      <c r="B30" s="9">
+        <v>0</v>
+      </c>
+      <c r="C30" s="9">
+        <v>0</v>
+      </c>
+      <c r="D30" s="9">
+        <v>0</v>
+      </c>
+      <c r="E30" s="9">
+        <v>0</v>
+      </c>
+      <c r="F30" s="9">
+        <v>0</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0</v>
+      </c>
+      <c r="I30" s="9">
+        <v>0</v>
+      </c>
+      <c r="J30" s="9">
+        <v>0</v>
+      </c>
+      <c r="K30" s="9">
+        <v>0</v>
+      </c>
+      <c r="L30" s="9">
+        <v>0</v>
+      </c>
+      <c r="M30" s="9">
+        <v>0</v>
+      </c>
+      <c r="N30" s="9">
+        <v>0</v>
+      </c>
+      <c r="O30" s="9">
+        <v>0</v>
+      </c>
+      <c r="P30" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>0</v>
+      </c>
+      <c r="R30" s="9">
+        <v>0</v>
+      </c>
+      <c r="S30" s="9">
+        <v>0</v>
+      </c>
+      <c r="T30" s="9">
+        <v>0</v>
+      </c>
+      <c r="U30" s="9">
+        <v>0</v>
+      </c>
+      <c r="V30" s="9">
+        <v>0</v>
+      </c>
+      <c r="W30" s="9">
+        <v>0</v>
+      </c>
+      <c r="X30" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="str">
+        <f>list_material!A31</f>
+        <v>Nickel</v>
+      </c>
+      <c r="B31" s="9">
+        <v>0</v>
+      </c>
+      <c r="C31" s="9">
+        <v>0</v>
+      </c>
+      <c r="D31" s="9">
+        <v>0</v>
+      </c>
+      <c r="E31" s="9">
+        <v>0</v>
+      </c>
+      <c r="F31" s="9">
+        <v>0</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0</v>
+      </c>
+      <c r="H31" s="9">
+        <v>0</v>
+      </c>
+      <c r="I31" s="9">
+        <v>0</v>
+      </c>
+      <c r="J31" s="9">
+        <v>0</v>
+      </c>
+      <c r="K31" s="9">
+        <v>0</v>
+      </c>
+      <c r="L31" s="9">
+        <v>0</v>
+      </c>
+      <c r="M31" s="9">
+        <v>0</v>
+      </c>
+      <c r="N31" s="9">
+        <v>0</v>
+      </c>
+      <c r="O31" s="9">
+        <v>0</v>
+      </c>
+      <c r="P31" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="9">
+        <v>0</v>
+      </c>
+      <c r="R31" s="9">
+        <v>0</v>
+      </c>
+      <c r="S31" s="9">
+        <v>0</v>
+      </c>
+      <c r="T31" s="9">
+        <v>0</v>
+      </c>
+      <c r="U31" s="9">
+        <v>0</v>
+      </c>
+      <c r="V31" s="9">
+        <v>0</v>
+      </c>
+      <c r="W31" s="9">
+        <v>0</v>
+      </c>
+      <c r="X31" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="str">
+        <f>list_material!A32</f>
+        <v>Stahl</v>
+      </c>
+      <c r="B32" s="9">
+        <v>0</v>
+      </c>
+      <c r="C32" s="9">
+        <v>0</v>
+      </c>
+      <c r="D32" s="9">
+        <v>0</v>
+      </c>
+      <c r="E32" s="9">
+        <v>0</v>
+      </c>
+      <c r="F32" s="9">
+        <v>0</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0</v>
+      </c>
+      <c r="H32" s="9">
+        <v>0</v>
+      </c>
+      <c r="I32" s="9">
+        <v>0</v>
+      </c>
+      <c r="J32" s="9">
+        <v>0</v>
+      </c>
+      <c r="K32" s="9">
+        <v>0</v>
+      </c>
+      <c r="L32" s="9">
+        <v>0</v>
+      </c>
+      <c r="M32" s="9">
+        <v>0</v>
+      </c>
+      <c r="N32" s="9">
+        <v>0</v>
+      </c>
+      <c r="O32" s="9">
+        <v>0</v>
+      </c>
+      <c r="P32" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="9">
+        <v>0</v>
+      </c>
+      <c r="R32" s="9">
+        <v>0</v>
+      </c>
+      <c r="S32" s="9">
+        <v>0</v>
+      </c>
+      <c r="T32" s="9">
+        <v>0</v>
+      </c>
+      <c r="U32" s="9">
+        <v>0</v>
+      </c>
+      <c r="V32" s="9">
+        <v>0</v>
+      </c>
+      <c r="W32" s="9">
+        <v>0</v>
+      </c>
+      <c r="X32" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="str">
+        <f>list_material!A33</f>
+        <v>Titan</v>
+      </c>
+      <c r="B33" s="9">
+        <v>0</v>
+      </c>
+      <c r="C33" s="9">
+        <v>0</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0</v>
+      </c>
+      <c r="F33" s="9">
+        <v>0</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0</v>
+      </c>
+      <c r="H33" s="9">
+        <v>0</v>
+      </c>
+      <c r="I33" s="9">
+        <v>0</v>
+      </c>
+      <c r="J33" s="9">
+        <v>0</v>
+      </c>
+      <c r="K33" s="9">
+        <v>0</v>
+      </c>
+      <c r="L33" s="9">
+        <v>0</v>
+      </c>
+      <c r="M33" s="9">
+        <v>0</v>
+      </c>
+      <c r="N33" s="9">
+        <v>0</v>
+      </c>
+      <c r="O33" s="9">
+        <v>0</v>
+      </c>
+      <c r="P33" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="9">
+        <v>0</v>
+      </c>
+      <c r="R33" s="9">
+        <v>0</v>
+      </c>
+      <c r="S33" s="9">
+        <v>0</v>
+      </c>
+      <c r="T33" s="9">
+        <v>0</v>
+      </c>
+      <c r="U33" s="9">
+        <v>0</v>
+      </c>
+      <c r="V33" s="9">
+        <v>0</v>
+      </c>
+      <c r="W33" s="9">
+        <v>0</v>
+      </c>
+      <c r="X33" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="str">
+        <f>list_material!A34</f>
+        <v>Zink</v>
+      </c>
+      <c r="B34" s="9">
+        <v>0</v>
+      </c>
+      <c r="C34" s="9">
+        <v>0</v>
+      </c>
+      <c r="D34" s="9">
+        <v>0</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0</v>
+      </c>
+      <c r="F34" s="9">
+        <v>0</v>
+      </c>
+      <c r="G34" s="9">
+        <v>0</v>
+      </c>
+      <c r="H34" s="9">
+        <v>0</v>
+      </c>
+      <c r="I34" s="9">
+        <v>0</v>
+      </c>
+      <c r="J34" s="9">
+        <v>0</v>
+      </c>
+      <c r="K34" s="9">
+        <v>0</v>
+      </c>
+      <c r="L34" s="9">
+        <v>0</v>
+      </c>
+      <c r="M34" s="9">
+        <v>0</v>
+      </c>
+      <c r="N34" s="9">
+        <v>0</v>
+      </c>
+      <c r="O34" s="9">
+        <v>0</v>
+      </c>
+      <c r="P34" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="9">
+        <v>0</v>
+      </c>
+      <c r="R34" s="9">
+        <v>0</v>
+      </c>
+      <c r="S34" s="9">
+        <v>0</v>
+      </c>
+      <c r="T34" s="9">
+        <v>0</v>
+      </c>
+      <c r="U34" s="9">
+        <v>0</v>
+      </c>
+      <c r="V34" s="9">
+        <v>0</v>
+      </c>
+      <c r="W34" s="9">
+        <v>0</v>
+      </c>
+      <c r="X34" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84FB39F2-18C7-4C89-AECD-A2AD62B3166C}">
   <dimension ref="A1:F106"/>
   <sheetViews>

--- a/content/background_data_decision_tree.xlsx
+++ b/content/background_data_decision_tree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://skznet-my.sharepoint.com/personal/j_werner_skz_de/Documents/PlastIQ/Bearbeitung/AP3_Generische Modelle/Entwicklung Entscheidungsschema/02_Hintergrunddaten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="692" documentId="8_{03825F57-9271-4F19-AB31-225796C02C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C6A3DC6-B4E7-46A9-AA6F-F7CB29D4FE4A}"/>
+  <xr:revisionPtr revIDLastSave="700" documentId="8_{03825F57-9271-4F19-AB31-225796C02C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C448148-CADB-4D28-B5B9-63CA3A87A0A7}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="5" xr2:uid="{9E0EC3E4-013A-49B8-ADD7-0C11DDD362E4}"/>
+    <workbookView xWindow="38280" yWindow="-2955" windowWidth="18240" windowHeight="28440" firstSheet="4" activeTab="6" xr2:uid="{9E0EC3E4-013A-49B8-ADD7-0C11DDD362E4}"/>
   </bookViews>
   <sheets>
     <sheet name="list_material" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,12 @@
     <sheet name="sort_density" sheetId="4" r:id="rId4"/>
     <sheet name="sort_electrostatic" sheetId="5" r:id="rId5"/>
     <sheet name="sort_sensorbased" sheetId="7" r:id="rId6"/>
-    <sheet name="lca_calculation" sheetId="6" r:id="rId7"/>
+    <sheet name="sort_compatibility" sheetId="8" r:id="rId7"/>
+    <sheet name="lca_parameters" sheetId="9" r:id="rId8"/>
+    <sheet name="lca_calculation" sheetId="6" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="196">
   <si>
     <t>ABS</t>
   </si>
@@ -1161,20 +1163,20 @@
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" customWidth="1"/>
-    <col min="4" max="4" width="18.7265625" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" customWidth="1"/>
-    <col min="6" max="6" width="19.81640625" customWidth="1"/>
-    <col min="7" max="7" width="30.1796875" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="15.90625" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1209,7 +1211,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1241,7 +1243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1273,7 +1275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1305,7 +1307,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1337,7 +1339,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
@@ -1369,7 +1371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1401,7 +1403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1431,7 +1433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -1463,7 +1465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
@@ -1495,7 +1497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>0</v>
       </c>
@@ -1527,7 +1529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1557,7 +1559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1587,7 +1589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>23</v>
       </c>
@@ -1617,7 +1619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
@@ -1649,7 +1651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>8</v>
       </c>
@@ -1681,7 +1683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
@@ -1711,7 +1713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1738,7 +1740,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>4</v>
       </c>
@@ -1765,7 +1767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>3</v>
       </c>
@@ -1795,7 +1797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1825,7 +1827,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1852,7 +1854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>42</v>
       </c>
@@ -1882,7 +1884,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>43</v>
       </c>
@@ -1912,7 +1914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -1944,7 +1946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -1973,7 +1975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -2002,7 +2004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -2034,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -2066,7 +2068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -2095,7 +2097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -2124,7 +2126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -2156,7 +2158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -2185,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -2228,12 +2230,12 @@
       <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="1"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2370,7 +2372,7 @@
         <v>Zink</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>list_material!A2</f>
         <v>PE-LD</v>
@@ -2475,7 +2477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>list_material!A3</f>
         <v>PE-LLD</v>
@@ -2580,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>list_material!A4</f>
         <v>PE-HD</v>
@@ -2685,7 +2687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>list_material!A5</f>
         <v>PE-MD</v>
@@ -2790,7 +2792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>list_material!A6</f>
         <v>PP</v>
@@ -2895,7 +2897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>list_material!A7</f>
         <v>PS</v>
@@ -3000,7 +3002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>list_material!A8</f>
         <v>PS-E/XPS</v>
@@ -3105,7 +3107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f>list_material!A9</f>
         <v>PVC-U</v>
@@ -3210,7 +3212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f>list_material!A10</f>
         <v>PVC-P</v>
@@ -3315,7 +3317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f>list_material!A11</f>
         <v>ABS</v>
@@ -3420,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
         <f>list_material!A12</f>
         <v>ASA</v>
@@ -3525,7 +3527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
         <f>list_material!A13</f>
         <v>SAN</v>
@@ -3630,7 +3632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <f>list_material!A14</f>
         <v>PMMA</v>
@@ -3735,7 +3737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
         <f>list_material!A15</f>
         <v>PA</v>
@@ -3840,7 +3842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
         <f>list_material!A16</f>
         <v>PET</v>
@@ -3945,7 +3947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
         <f>list_material!A17</f>
         <v>POM</v>
@@ -4050,7 +4052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="str">
         <f>list_material!A18</f>
         <v>PBT</v>
@@ -4155,7 +4157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
         <f>list_material!A19</f>
         <v>PEEK</v>
@@ -4260,7 +4262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="str">
         <f>list_material!A20</f>
         <v>PC</v>
@@ -4365,7 +4367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="str">
         <f>list_material!A21</f>
         <v>PUR</v>
@@ -4470,7 +4472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="str">
         <f>list_material!A22</f>
         <v>Thermoplaste</v>
@@ -4575,7 +4577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="str">
         <f>list_material!A23</f>
         <v>Elastomere</v>
@@ -4680,7 +4682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="str">
         <f>list_material!A24</f>
         <v>Duromere</v>
@@ -4785,7 +4787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="str">
         <f>list_material!A25</f>
         <v>Aluminium</v>
@@ -4890,7 +4892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="str">
         <f>list_material!A26</f>
         <v>Blei</v>
@@ -4995,7 +4997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="str">
         <f>list_material!A27</f>
         <v>Chrom</v>
@@ -5100,7 +5102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="str">
         <f>list_material!A28</f>
         <v>Eisen</v>
@@ -5205,7 +5207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="str">
         <f>list_material!A29</f>
         <v>Kupfer</v>
@@ -5310,7 +5312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="str">
         <f>list_material!A30</f>
         <v>Magnesium</v>
@@ -5415,7 +5417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="str">
         <f>list_material!A31</f>
         <v>Nickel</v>
@@ -5520,7 +5522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="str">
         <f>list_material!A32</f>
         <v>Stahl</v>
@@ -5625,7 +5627,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="str">
         <f>list_material!A33</f>
         <v>Titan</v>
@@ -5730,7 +5732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="str">
         <f>list_material!A34</f>
         <v>Zink</v>
@@ -5848,9 +5850,9 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -5987,7 +5989,7 @@
         <v>Zink</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>list_material!A2</f>
         <v>PE-LD</v>
@@ -6092,7 +6094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>list_material!A3</f>
         <v>PE-LLD</v>
@@ -6197,7 +6199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>list_material!A4</f>
         <v>PE-HD</v>
@@ -6302,7 +6304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>list_material!A5</f>
         <v>PE-MD</v>
@@ -6407,7 +6409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>list_material!A6</f>
         <v>PP</v>
@@ -6512,7 +6514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>list_material!A7</f>
         <v>PS</v>
@@ -6617,7 +6619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>list_material!A8</f>
         <v>PS-E/XPS</v>
@@ -6722,7 +6724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f>list_material!A9</f>
         <v>PVC-U</v>
@@ -6827,7 +6829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f>list_material!A10</f>
         <v>PVC-P</v>
@@ -6932,7 +6934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f>list_material!A11</f>
         <v>ABS</v>
@@ -7037,7 +7039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
         <f>list_material!A12</f>
         <v>ASA</v>
@@ -7142,7 +7144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
         <f>list_material!A13</f>
         <v>SAN</v>
@@ -7247,7 +7249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <f>list_material!A14</f>
         <v>PMMA</v>
@@ -7352,7 +7354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
         <f>list_material!A15</f>
         <v>PA</v>
@@ -7457,7 +7459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
         <f>list_material!A16</f>
         <v>PET</v>
@@ -7562,7 +7564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
         <f>list_material!A17</f>
         <v>POM</v>
@@ -7667,7 +7669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="str">
         <f>list_material!A18</f>
         <v>PBT</v>
@@ -7772,7 +7774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
         <f>list_material!A19</f>
         <v>PEEK</v>
@@ -7877,7 +7879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="str">
         <f>list_material!A20</f>
         <v>PC</v>
@@ -7982,7 +7984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="str">
         <f>list_material!A21</f>
         <v>PUR</v>
@@ -8087,7 +8089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="str">
         <f>list_material!A22</f>
         <v>Thermoplaste</v>
@@ -8192,7 +8194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="str">
         <f>list_material!A23</f>
         <v>Elastomere</v>
@@ -8297,7 +8299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="str">
         <f>list_material!A24</f>
         <v>Duromere</v>
@@ -8402,7 +8404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="str">
         <f>list_material!A25</f>
         <v>Aluminium</v>
@@ -8507,7 +8509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="str">
         <f>list_material!A26</f>
         <v>Blei</v>
@@ -8612,7 +8614,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="str">
         <f>list_material!A27</f>
         <v>Chrom</v>
@@ -8717,7 +8719,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="str">
         <f>list_material!A28</f>
         <v>Eisen</v>
@@ -8822,7 +8824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="str">
         <f>list_material!A29</f>
         <v>Kupfer</v>
@@ -8927,7 +8929,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="str">
         <f>list_material!A30</f>
         <v>Magnesium</v>
@@ -9032,7 +9034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="str">
         <f>list_material!A31</f>
         <v>Nickel</v>
@@ -9137,7 +9139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="str">
         <f>list_material!A32</f>
         <v>Stahl</v>
@@ -9242,7 +9244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="str">
         <f>list_material!A33</f>
         <v>Titan</v>
@@ -9347,7 +9349,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="str">
         <f>list_material!A34</f>
         <v>Zink</v>
@@ -9465,9 +9467,9 @@
       <selection activeCell="A2" sqref="A2:A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -9604,7 +9606,7 @@
         <v>Zink</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>list_material!A2</f>
         <v>PE-LD</v>
@@ -9709,7 +9711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>list_material!A3</f>
         <v>PE-LLD</v>
@@ -9814,7 +9816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>list_material!A4</f>
         <v>PE-HD</v>
@@ -9919,7 +9921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>list_material!A5</f>
         <v>PE-MD</v>
@@ -10024,7 +10026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>list_material!A6</f>
         <v>PP</v>
@@ -10129,7 +10131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>list_material!A7</f>
         <v>PS</v>
@@ -10234,7 +10236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>list_material!A8</f>
         <v>PS-E/XPS</v>
@@ -10339,7 +10341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f>list_material!A9</f>
         <v>PVC-U</v>
@@ -10444,7 +10446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f>list_material!A10</f>
         <v>PVC-P</v>
@@ -10549,7 +10551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f>list_material!A11</f>
         <v>ABS</v>
@@ -10654,7 +10656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
         <f>list_material!A12</f>
         <v>ASA</v>
@@ -10759,7 +10761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
         <f>list_material!A13</f>
         <v>SAN</v>
@@ -10864,7 +10866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <f>list_material!A14</f>
         <v>PMMA</v>
@@ -10969,7 +10971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
         <f>list_material!A15</f>
         <v>PA</v>
@@ -11074,7 +11076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
         <f>list_material!A16</f>
         <v>PET</v>
@@ -11179,7 +11181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
         <f>list_material!A17</f>
         <v>POM</v>
@@ -11284,7 +11286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="str">
         <f>list_material!A18</f>
         <v>PBT</v>
@@ -11389,7 +11391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
         <f>list_material!A19</f>
         <v>PEEK</v>
@@ -11494,7 +11496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="str">
         <f>list_material!A20</f>
         <v>PC</v>
@@ -11599,7 +11601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="str">
         <f>list_material!A21</f>
         <v>PUR</v>
@@ -11704,7 +11706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="str">
         <f>list_material!A22</f>
         <v>Thermoplaste</v>
@@ -11809,7 +11811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="str">
         <f>list_material!A23</f>
         <v>Elastomere</v>
@@ -11914,7 +11916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="str">
         <f>list_material!A24</f>
         <v>Duromere</v>
@@ -12019,7 +12021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="str">
         <f>list_material!A25</f>
         <v>Aluminium</v>
@@ -12124,7 +12126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="str">
         <f>list_material!A26</f>
         <v>Blei</v>
@@ -12229,7 +12231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="str">
         <f>list_material!A27</f>
         <v>Chrom</v>
@@ -12334,7 +12336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="str">
         <f>list_material!A28</f>
         <v>Eisen</v>
@@ -12439,7 +12441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="str">
         <f>list_material!A29</f>
         <v>Kupfer</v>
@@ -12544,7 +12546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="str">
         <f>list_material!A30</f>
         <v>Magnesium</v>
@@ -12649,7 +12651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="str">
         <f>list_material!A31</f>
         <v>Nickel</v>
@@ -12754,7 +12756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="str">
         <f>list_material!A32</f>
         <v>Stahl</v>
@@ -12859,7 +12861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="str">
         <f>list_material!A33</f>
         <v>Titan</v>
@@ -12964,7 +12966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="str">
         <f>list_material!A34</f>
         <v>Zink</v>
@@ -13082,9 +13084,9 @@
       <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -13221,7 +13223,7 @@
         <v>Zink</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>list_material!A2</f>
         <v>PE-LD</v>
@@ -13326,7 +13328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>list_material!A3</f>
         <v>PE-LLD</v>
@@ -13431,7 +13433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>list_material!A4</f>
         <v>PE-HD</v>
@@ -13536,7 +13538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>list_material!A5</f>
         <v>PE-MD</v>
@@ -13641,7 +13643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>list_material!A6</f>
         <v>PP</v>
@@ -13746,7 +13748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>list_material!A7</f>
         <v>PS</v>
@@ -13851,7 +13853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>list_material!A8</f>
         <v>PS-E/XPS</v>
@@ -13956,7 +13958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f>list_material!A9</f>
         <v>PVC-U</v>
@@ -14061,7 +14063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f>list_material!A10</f>
         <v>PVC-P</v>
@@ -14166,7 +14168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f>list_material!A11</f>
         <v>ABS</v>
@@ -14271,7 +14273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
         <f>list_material!A12</f>
         <v>ASA</v>
@@ -14376,7 +14378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
         <f>list_material!A13</f>
         <v>SAN</v>
@@ -14481,7 +14483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <f>list_material!A14</f>
         <v>PMMA</v>
@@ -14586,7 +14588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
         <f>list_material!A15</f>
         <v>PA</v>
@@ -14691,7 +14693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
         <f>list_material!A16</f>
         <v>PET</v>
@@ -14796,7 +14798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
         <f>list_material!A17</f>
         <v>POM</v>
@@ -14901,7 +14903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="str">
         <f>list_material!A18</f>
         <v>PBT</v>
@@ -15006,7 +15008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
         <f>list_material!A19</f>
         <v>PEEK</v>
@@ -15111,7 +15113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="str">
         <f>list_material!A20</f>
         <v>PC</v>
@@ -15216,7 +15218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="str">
         <f>list_material!A21</f>
         <v>PUR</v>
@@ -15321,7 +15323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="str">
         <f>list_material!A22</f>
         <v>Thermoplaste</v>
@@ -15426,7 +15428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="str">
         <f>list_material!A23</f>
         <v>Elastomere</v>
@@ -15531,7 +15533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="str">
         <f>list_material!A24</f>
         <v>Duromere</v>
@@ -15636,7 +15638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="str">
         <f>list_material!A25</f>
         <v>Aluminium</v>
@@ -15741,7 +15743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="str">
         <f>list_material!A26</f>
         <v>Blei</v>
@@ -15846,7 +15848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="str">
         <f>list_material!A27</f>
         <v>Chrom</v>
@@ -15951,7 +15953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="str">
         <f>list_material!A28</f>
         <v>Eisen</v>
@@ -16056,7 +16058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="str">
         <f>list_material!A29</f>
         <v>Kupfer</v>
@@ -16161,7 +16163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="str">
         <f>list_material!A30</f>
         <v>Magnesium</v>
@@ -16266,7 +16268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="str">
         <f>list_material!A31</f>
         <v>Nickel</v>
@@ -16371,7 +16373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="str">
         <f>list_material!A32</f>
         <v>Stahl</v>
@@ -16476,7 +16478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="str">
         <f>list_material!A33</f>
         <v>Titan</v>
@@ -16581,7 +16583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="str">
         <f>list_material!A34</f>
         <v>Zink</v>
@@ -16695,13 +16697,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D1A6FC-3E56-461B-B763-C2D2BC11EE1A}">
   <dimension ref="A1:AH34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V1" sqref="V1:AH34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
@@ -16838,7 +16840,7 @@
         <v>Zink</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f>list_material!A2</f>
         <v>PE-LD</v>
@@ -16943,7 +16945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="str">
         <f>list_material!A3</f>
         <v>PE-LLD</v>
@@ -17048,7 +17050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="str">
         <f>list_material!A4</f>
         <v>PE-HD</v>
@@ -17153,7 +17155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="str">
         <f>list_material!A5</f>
         <v>PE-MD</v>
@@ -17258,7 +17260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="str">
         <f>list_material!A6</f>
         <v>PP</v>
@@ -17363,7 +17365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="str">
         <f>list_material!A7</f>
         <v>PS</v>
@@ -17468,7 +17470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="str">
         <f>list_material!A8</f>
         <v>PS-E/XPS</v>
@@ -17573,7 +17575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="str">
         <f>list_material!A9</f>
         <v>PVC-U</v>
@@ -17678,7 +17680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="str">
         <f>list_material!A10</f>
         <v>PVC-P</v>
@@ -17783,7 +17785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="str">
         <f>list_material!A11</f>
         <v>ABS</v>
@@ -17888,7 +17890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="str">
         <f>list_material!A12</f>
         <v>ASA</v>
@@ -17993,7 +17995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="str">
         <f>list_material!A13</f>
         <v>SAN</v>
@@ -18098,7 +18100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="str">
         <f>list_material!A14</f>
         <v>PMMA</v>
@@ -18203,7 +18205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="str">
         <f>list_material!A15</f>
         <v>PA</v>
@@ -18308,7 +18310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="str">
         <f>list_material!A16</f>
         <v>PET</v>
@@ -18413,7 +18415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="str">
         <f>list_material!A17</f>
         <v>POM</v>
@@ -18518,7 +18520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="str">
         <f>list_material!A18</f>
         <v>PBT</v>
@@ -18623,7 +18625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="str">
         <f>list_material!A19</f>
         <v>PEEK</v>
@@ -18728,7 +18730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="str">
         <f>list_material!A20</f>
         <v>PC</v>
@@ -18833,7 +18835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="str">
         <f>list_material!A21</f>
         <v>PUR</v>
@@ -18938,7 +18940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="str">
         <f>list_material!A22</f>
         <v>Thermoplaste</v>
@@ -19043,7 +19045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="str">
         <f>list_material!A23</f>
         <v>Elastomere</v>
@@ -19148,7 +19150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="str">
         <f>list_material!A24</f>
         <v>Duromere</v>
@@ -19253,7 +19255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="str">
         <f>list_material!A25</f>
         <v>Aluminium</v>
@@ -19358,7 +19360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="str">
         <f>list_material!A26</f>
         <v>Blei</v>
@@ -19463,7 +19465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="str">
         <f>list_material!A27</f>
         <v>Chrom</v>
@@ -19568,7 +19570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="str">
         <f>list_material!A28</f>
         <v>Eisen</v>
@@ -19673,7 +19675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="str">
         <f>list_material!A29</f>
         <v>Kupfer</v>
@@ -19778,7 +19780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="str">
         <f>list_material!A30</f>
         <v>Magnesium</v>
@@ -19883,7 +19885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="str">
         <f>list_material!A31</f>
         <v>Nickel</v>
@@ -19988,7 +19990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="str">
         <f>list_material!A32</f>
         <v>Stahl</v>
@@ -20093,7 +20095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="str">
         <f>list_material!A33</f>
         <v>Titan</v>
@@ -20198,7 +20200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="str">
         <f>list_material!A34</f>
         <v>Zink</v>
@@ -20310,6 +20312,3566 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B29B41-5BBD-4404-94E1-24D348AFB830}">
+  <dimension ref="A1:AH34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.5</v>
+      </c>
+      <c r="H2">
+        <v>0.5</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0.5</v>
+      </c>
+      <c r="P2">
+        <v>0.5</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.5</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0.5</v>
+      </c>
+      <c r="H3">
+        <v>0.5</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0.5</v>
+      </c>
+      <c r="P3">
+        <v>0.5</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.5</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0.5</v>
+      </c>
+      <c r="H4">
+        <v>0.5</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0.5</v>
+      </c>
+      <c r="P4">
+        <v>0.5</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.5</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0.5</v>
+      </c>
+      <c r="H5">
+        <v>0.5</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0.5</v>
+      </c>
+      <c r="P5">
+        <v>0.5</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.5</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.5</v>
+      </c>
+      <c r="H6">
+        <v>0.5</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0.5</v>
+      </c>
+      <c r="P6">
+        <v>0.5</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.5</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0.5</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0.5</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>0.5</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0.5</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0.5</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0.5</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0.5</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>0.5</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0.5</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>0.5</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0.5</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>0.5</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>0.5</v>
+      </c>
+      <c r="C15">
+        <v>0.5</v>
+      </c>
+      <c r="D15">
+        <v>0.5</v>
+      </c>
+      <c r="E15">
+        <v>0.5</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.5</v>
+      </c>
+      <c r="H15">
+        <v>0.5</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0.5</v>
+      </c>
+      <c r="L15">
+        <v>0.5</v>
+      </c>
+      <c r="M15">
+        <v>0.5</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0.5</v>
+      </c>
+      <c r="U15">
+        <v>0.5</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>0.5</v>
+      </c>
+      <c r="C16">
+        <v>0.5</v>
+      </c>
+      <c r="D16">
+        <v>0.5</v>
+      </c>
+      <c r="E16">
+        <v>0.5</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0.5</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>0.5</v>
+      </c>
+      <c r="C18">
+        <v>0.5</v>
+      </c>
+      <c r="D18">
+        <v>0.5</v>
+      </c>
+      <c r="E18">
+        <v>0.5</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0.5</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0.5</v>
+      </c>
+      <c r="J21">
+        <v>0.5</v>
+      </c>
+      <c r="K21">
+        <v>0.5</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.5</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0.5</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0.5</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>1</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>1</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>1</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>1</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>1</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>1</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>1</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98E1C48-D350-4E1A-A4AF-22B75A38FD35}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84FB39F2-18C7-4C89-AECD-A2AD62B3166C}">
   <dimension ref="A1:F106"/>
   <sheetViews>
@@ -20317,15 +23879,15 @@
       <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="22.81640625" customWidth="1"/>
-    <col min="3" max="3" width="36.54296875" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -20345,7 +23907,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>174</v>
       </c>
@@ -20365,7 +23927,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>174</v>
       </c>
@@ -20385,7 +23947,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>174</v>
       </c>
@@ -20405,7 +23967,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>174</v>
       </c>
@@ -20425,7 +23987,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>174</v>
       </c>
@@ -20445,7 +24007,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>174</v>
       </c>
@@ -20462,7 +24024,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>174</v>
       </c>
@@ -20479,7 +24041,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>174</v>
       </c>
@@ -20496,7 +24058,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>174</v>
       </c>
@@ -20516,7 +24078,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>174</v>
       </c>
@@ -20536,7 +24098,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>174</v>
       </c>
@@ -20553,7 +24115,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>174</v>
       </c>
@@ -20573,7 +24135,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>174</v>
       </c>
@@ -20593,7 +24155,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>174</v>
       </c>
@@ -20613,7 +24175,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>174</v>
       </c>
@@ -20633,7 +24195,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>174</v>
       </c>
@@ -20650,7 +24212,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>174</v>
       </c>
@@ -20670,7 +24232,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>174</v>
       </c>
@@ -20687,7 +24249,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>174</v>
       </c>
@@ -20704,7 +24266,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>174</v>
       </c>
@@ -20724,7 +24286,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>174</v>
       </c>
@@ -20744,7 +24306,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>174</v>
       </c>
@@ -20761,7 +24323,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>174</v>
       </c>
@@ -20778,7 +24340,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>174</v>
       </c>
@@ -20795,7 +24357,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>174</v>
       </c>
@@ -20812,7 +24374,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>174</v>
       </c>
@@ -20829,7 +24391,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>174</v>
       </c>
@@ -20846,7 +24408,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>174</v>
       </c>
@@ -20863,7 +24425,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>174</v>
       </c>
@@ -20880,7 +24442,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>174</v>
       </c>
@@ -20900,7 +24462,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>174</v>
       </c>
@@ -20917,7 +24479,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>174</v>
       </c>
@@ -20934,7 +24496,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>174</v>
       </c>
@@ -20951,7 +24513,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>174</v>
       </c>
@@ -20968,7 +24530,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>174</v>
       </c>
@@ -20985,7 +24547,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>174</v>
       </c>
@@ -20997,13 +24559,13 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="1"/>
       <c r="D38" s="2"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>175</v>
       </c>
@@ -21021,7 +24583,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>175</v>
       </c>
@@ -21039,7 +24601,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>175</v>
       </c>
@@ -21057,7 +24619,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>175</v>
       </c>
@@ -21075,7 +24637,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>175</v>
       </c>
@@ -21093,7 +24655,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>175</v>
       </c>
@@ -21111,7 +24673,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>175</v>
       </c>
@@ -21129,7 +24691,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>175</v>
       </c>
@@ -21147,7 +24709,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>175</v>
       </c>
@@ -21165,7 +24727,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>175</v>
       </c>
@@ -21183,12 +24745,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="1"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>149</v>
       </c>
@@ -21209,7 +24771,7 @@
         <v>Gabi (2022.2)_DE: Acrylonitrile-butadiene-styrene (ABS) in waste incineration plant Sphera &lt;t-agg&gt;</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>149</v>
       </c>
@@ -21230,7 +24792,7 @@
         <v>Gabi (2022.2)_DE: Polycarbonate (PC) in waste incineration plant Sphera &lt;t-agg&gt;</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>149</v>
       </c>
@@ -21251,7 +24813,7 @@
         <v>LCA for experts (2024.1)_DE: Polyethylene (PE) in waste incineration plant (0% H2O content) Sphera &lt;t-agg&gt;</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>149</v>
       </c>
@@ -21272,7 +24834,7 @@
         <v>Gabi (2022.2)_DE: Polyethylene terephthalate (PET) in waste incineration plant Sphera &lt;t-agg&gt;</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>149</v>
       </c>
@@ -21293,7 +24855,7 @@
         <v>Gabi (2022.2)_DE: Polyamide (PA) 6 in waste incineration plant Sphera &lt;t-agg&gt;</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>149</v>
       </c>
@@ -21314,7 +24876,7 @@
         <v>Gabi (2022.2)_DE: Polyamide (PA) 6.6 in waste incineration plant Sphera &lt;t-agg&gt;</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>149</v>
       </c>
@@ -21335,7 +24897,7 @@
         <v>Gabi (2022.2)_DE: Polyethylene terephthalate (PET) in waste incineration plant Sphera &lt;t-agg&gt;</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>149</v>
       </c>
@@ -21356,7 +24918,7 @@
         <v>Gabi (2022.2)_DE: Polyamide (PA) 6 in waste incineration plant Sphera &lt;t-agg&gt;</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>149</v>
       </c>
@@ -21374,7 +24936,7 @@
         <v>Gabi (2022.2)_DE: Polyamide (PA) 6.6 in waste incineration plant Sphera &lt;t-agg&gt;</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>149</v>
       </c>
@@ -21395,7 +24957,7 @@
         <v>GaBi (2022.2)_DE: Polyvinyl chloride (PVC) in waste incineration plant; waste-to-energy plant with dry flue gas treatment, without collection, transport and pre-treatment; production mix (region specific plants), at plant; 18.0 MJ/kg net calorific value</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>149</v>
       </c>
@@ -21416,7 +24978,7 @@
         <v>Gabi (2022.2)_DE: Plastics (unspecified) in waste incineration plant Sphera &lt;t-agg&gt;</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>149</v>
       </c>
@@ -21437,7 +24999,7 @@
         <v>Gabi (2022.2)_DE: Plastics (unspecified) in waste incineration plant Sphera &lt;t-agg&gt;</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>149</v>
       </c>
@@ -21458,7 +25020,7 @@
         <v>LCA for experts (2024.1)_DE: Polypropylene (PP) in waste incineration plant (0% H2O content) Sphera &lt;t-agg&gt;</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>149</v>
       </c>
@@ -21479,7 +25041,7 @@
         <v>Gabi (2022.2)_DE: Polystyrene (PS) in waste incineration plant Sphera &lt;t-agg&gt;</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>149</v>
       </c>
@@ -21497,7 +25059,7 @@
         <v>Gabi (2022.2)_DE: Polybutadiene (PB) in waste incineration plant Sphera &lt;t-agg&gt;, waste-to-energy plant with dry flue gas treatment, without collection, transport and pre-treatment, production mix (region specific plants), at plant, 41.6 MJ/kg net calorific value</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>149</v>
       </c>
@@ -21518,10 +25080,10 @@
         <v>Gabi (2022.2)_DE: Polymethylmethacrylate (PMMA) in waste incineration plant Sphera &lt;t-agg&gt;, waste-to-energy plant with dry flue gas treatment, without collection, transport and pre-treatment, production mix (region specific plants), at plant, 25.1 MJ/kg net calorific value</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>149</v>
       </c>
@@ -21538,7 +25100,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>149</v>
       </c>
@@ -21555,7 +25117,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>149</v>
       </c>
@@ -21572,7 +25134,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>149</v>
       </c>
@@ -21589,7 +25151,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>149</v>
       </c>
@@ -21606,7 +25168,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>149</v>
       </c>
@@ -21623,7 +25185,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>149</v>
       </c>
@@ -21640,7 +25202,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>149</v>
       </c>
@@ -21657,7 +25219,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -21674,7 +25236,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>149</v>
       </c>
@@ -21691,12 +25253,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="9"/>
       <c r="B77" s="1"/>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>156</v>
       </c>
@@ -21716,7 +25278,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>155</v>
       </c>
@@ -21736,10 +25298,10 @@
         <v>128</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>154</v>
       </c>
@@ -21756,7 +25318,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>154</v>
       </c>
@@ -21776,7 +25338,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>154</v>
       </c>
@@ -21796,7 +25358,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>154</v>
       </c>
@@ -21816,7 +25378,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>154</v>
       </c>
@@ -21836,7 +25398,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>154</v>
       </c>
@@ -21856,7 +25418,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>154</v>
       </c>
@@ -21876,7 +25438,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>154</v>
       </c>
@@ -21896,7 +25458,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>153</v>
       </c>
@@ -21913,7 +25475,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>153</v>
       </c>
@@ -21933,7 +25495,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>139</v>
       </c>
@@ -21953,7 +25515,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>142</v>
       </c>
@@ -21964,7 +25526,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>158</v>
       </c>
@@ -21975,7 +25537,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>170</v>
       </c>
@@ -21986,7 +25548,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>191</v>
       </c>
@@ -22004,7 +25566,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>191</v>
       </c>
@@ -22022,7 +25584,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>191</v>
       </c>
@@ -22040,7 +25602,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>191</v>
       </c>
@@ -22058,7 +25620,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>191</v>
       </c>
@@ -22076,7 +25638,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>191</v>
       </c>
@@ -22094,7 +25656,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>191</v>
       </c>
@@ -22112,7 +25674,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>191</v>
       </c>
@@ -22130,7 +25692,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>191</v>
       </c>
@@ -22148,7 +25710,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>191</v>
       </c>
